--- a/Wollongong Wolves Statistics (Python Version).xlsx
+++ b/Wollongong Wolves Statistics (Python Version).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\PycharmProjects\PlayerDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C109172-C7E7-4D7F-B5B9-45E37813658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A85927-72D9-4FE9-9ECE-CE3FF22AAEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="103">
   <si>
     <t>Minutes</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>4/27/2025</t>
+  </si>
+  <si>
+    <t>NWS Spirit</t>
+  </si>
+  <si>
+    <t>Daniel Solsky</t>
+  </si>
+  <si>
+    <t>Marconi Stallions</t>
   </si>
 </sst>
 </file>
@@ -738,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN158"/>
+  <dimension ref="A1:BN187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB8" sqref="A1:BN158"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E159" sqref="E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31838,6 +31847,5458 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="159" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A159" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" s="5">
+        <v>24</v>
+      </c>
+      <c r="C159" s="5">
+        <v>0</v>
+      </c>
+      <c r="D159" s="5">
+        <v>0</v>
+      </c>
+      <c r="E159" s="5">
+        <v>0</v>
+      </c>
+      <c r="F159" s="5">
+        <v>0</v>
+      </c>
+      <c r="G159" s="5">
+        <v>0</v>
+      </c>
+      <c r="H159" s="5">
+        <v>0</v>
+      </c>
+      <c r="I159" s="5">
+        <v>0</v>
+      </c>
+      <c r="J159" s="5">
+        <v>0</v>
+      </c>
+      <c r="K159" s="5">
+        <v>0</v>
+      </c>
+      <c r="L159" s="5">
+        <v>0</v>
+      </c>
+      <c r="M159" s="5">
+        <v>0</v>
+      </c>
+      <c r="N159" s="5">
+        <v>0</v>
+      </c>
+      <c r="O159" s="5">
+        <v>0</v>
+      </c>
+      <c r="P159" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q159" s="5">
+        <v>0</v>
+      </c>
+      <c r="R159" s="5">
+        <v>0</v>
+      </c>
+      <c r="S159" s="5">
+        <v>0</v>
+      </c>
+      <c r="T159" s="5">
+        <v>0</v>
+      </c>
+      <c r="U159" s="5">
+        <v>0</v>
+      </c>
+      <c r="V159" s="7">
+        <v>0</v>
+      </c>
+      <c r="W159" s="5">
+        <v>11</v>
+      </c>
+      <c r="X159" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y159" s="5">
+        <v>8</v>
+      </c>
+      <c r="Z159" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AA159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE159" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF159" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI159" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ159" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK159" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL159" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO159" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP159" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY159" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ159" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA159" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB159" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC159" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD159" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE159" s="5"/>
+      <c r="BF159" s="5"/>
+      <c r="BG159" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH159" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI159" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ159" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK159" s="5"/>
+      <c r="BL159" s="5"/>
+      <c r="BM159" s="5"/>
+      <c r="BN159" s="5"/>
+    </row>
+    <row r="160" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" s="5">
+        <v>95</v>
+      </c>
+      <c r="C160" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D160" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="E160" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="F160" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="G160" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H160" s="5">
+        <v>0</v>
+      </c>
+      <c r="I160" s="5">
+        <v>0</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0</v>
+      </c>
+      <c r="K160" s="5">
+        <v>0</v>
+      </c>
+      <c r="L160" s="5">
+        <v>0</v>
+      </c>
+      <c r="M160" s="5">
+        <v>0</v>
+      </c>
+      <c r="N160" s="5">
+        <v>0</v>
+      </c>
+      <c r="O160" s="5">
+        <v>0</v>
+      </c>
+      <c r="P160" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="5">
+        <v>1</v>
+      </c>
+      <c r="R160" s="5">
+        <v>1</v>
+      </c>
+      <c r="S160" s="5">
+        <v>0</v>
+      </c>
+      <c r="T160" s="5">
+        <v>0</v>
+      </c>
+      <c r="U160" s="5">
+        <v>0</v>
+      </c>
+      <c r="V160" s="7">
+        <v>0</v>
+      </c>
+      <c r="W160" s="5">
+        <v>96</v>
+      </c>
+      <c r="X160" s="5">
+        <v>71</v>
+      </c>
+      <c r="Y160" s="5">
+        <v>81</v>
+      </c>
+      <c r="Z160" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="AA160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF160" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG160" s="5">
+        <v>8</v>
+      </c>
+      <c r="AH160" s="5">
+        <v>11</v>
+      </c>
+      <c r="AI160" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AJ160" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK160" s="5">
+        <v>6</v>
+      </c>
+      <c r="AL160" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AM160" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN160" s="5">
+        <v>6</v>
+      </c>
+      <c r="AO160" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AP160" s="5">
+        <v>12</v>
+      </c>
+      <c r="AQ160" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR160" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT160" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU160" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV160" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY160" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ160" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA160" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB160" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC160" s="5">
+        <v>2</v>
+      </c>
+      <c r="BD160" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE160" s="5"/>
+      <c r="BF160" s="5"/>
+      <c r="BG160" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH160" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI160" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ160" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK160" s="5"/>
+      <c r="BL160" s="5"/>
+      <c r="BM160" s="5"/>
+      <c r="BN160" s="5"/>
+    </row>
+    <row r="161" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B161" s="5">
+        <v>82</v>
+      </c>
+      <c r="C161" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D161" s="5">
+        <v>0</v>
+      </c>
+      <c r="E161" s="5">
+        <v>0</v>
+      </c>
+      <c r="F161" s="5">
+        <v>0</v>
+      </c>
+      <c r="G161" s="5">
+        <v>0</v>
+      </c>
+      <c r="H161" s="5">
+        <v>0</v>
+      </c>
+      <c r="I161" s="5">
+        <v>0</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0</v>
+      </c>
+      <c r="K161" s="5">
+        <v>0</v>
+      </c>
+      <c r="L161" s="5">
+        <v>0</v>
+      </c>
+      <c r="M161" s="5">
+        <v>0</v>
+      </c>
+      <c r="N161" s="5">
+        <v>0</v>
+      </c>
+      <c r="O161" s="5">
+        <v>0</v>
+      </c>
+      <c r="P161" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="5">
+        <v>0</v>
+      </c>
+      <c r="R161" s="5">
+        <v>0</v>
+      </c>
+      <c r="S161" s="5">
+        <v>0</v>
+      </c>
+      <c r="T161" s="5">
+        <v>0</v>
+      </c>
+      <c r="U161" s="5">
+        <v>0</v>
+      </c>
+      <c r="V161" s="7">
+        <v>0</v>
+      </c>
+      <c r="W161" s="5">
+        <v>20</v>
+      </c>
+      <c r="X161" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y161" s="5">
+        <v>18</v>
+      </c>
+      <c r="Z161" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AA161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD161" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE161" s="5">
+        <v>4</v>
+      </c>
+      <c r="AF161" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH161" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI161" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ161" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK161" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL161" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AM161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN161" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO161" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP161" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR161" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT161" s="5">
+        <v>3</v>
+      </c>
+      <c r="AU161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX161" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY161" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ161" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA161" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB161" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC161" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD161" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE161" s="5"/>
+      <c r="BF161" s="5"/>
+      <c r="BG161" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH161" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI161" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ161" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK161" s="5"/>
+      <c r="BL161" s="5"/>
+      <c r="BM161" s="5"/>
+      <c r="BN161" s="5"/>
+    </row>
+    <row r="162" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A162" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B162" s="5">
+        <v>13</v>
+      </c>
+      <c r="C162" s="5">
+        <v>0</v>
+      </c>
+      <c r="D162" s="5">
+        <v>0</v>
+      </c>
+      <c r="E162" s="5">
+        <v>0</v>
+      </c>
+      <c r="F162" s="5">
+        <v>0</v>
+      </c>
+      <c r="G162" s="5">
+        <v>0</v>
+      </c>
+      <c r="H162" s="5">
+        <v>0</v>
+      </c>
+      <c r="I162" s="5">
+        <v>0</v>
+      </c>
+      <c r="J162" s="5">
+        <v>0</v>
+      </c>
+      <c r="K162" s="5">
+        <v>0</v>
+      </c>
+      <c r="L162" s="5">
+        <v>0</v>
+      </c>
+      <c r="M162" s="5">
+        <v>0</v>
+      </c>
+      <c r="N162" s="5">
+        <v>0</v>
+      </c>
+      <c r="O162" s="5">
+        <v>0</v>
+      </c>
+      <c r="P162" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="5">
+        <v>0</v>
+      </c>
+      <c r="R162" s="5">
+        <v>0</v>
+      </c>
+      <c r="S162" s="5">
+        <v>0</v>
+      </c>
+      <c r="T162" s="5">
+        <v>0</v>
+      </c>
+      <c r="U162" s="5">
+        <v>0</v>
+      </c>
+      <c r="V162" s="7">
+        <v>0</v>
+      </c>
+      <c r="W162" s="5">
+        <v>8</v>
+      </c>
+      <c r="X162" s="5">
+        <v>5</v>
+      </c>
+      <c r="Y162" s="5">
+        <v>6</v>
+      </c>
+      <c r="Z162" s="7">
+        <v>0.83</v>
+      </c>
+      <c r="AA162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF162" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH162" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI162" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL162" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO162" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP162" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ162" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV162" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY162" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ162" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA162" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB162" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC162" s="5">
+        <v>2</v>
+      </c>
+      <c r="BD162" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE162" s="5"/>
+      <c r="BF162" s="5"/>
+      <c r="BG162" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH162" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI162" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ162" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK162" s="5"/>
+      <c r="BL162" s="5"/>
+      <c r="BM162" s="5"/>
+      <c r="BN162" s="5"/>
+    </row>
+    <row r="163" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="5">
+        <v>95</v>
+      </c>
+      <c r="C163" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D163" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E163" s="5">
+        <v>0</v>
+      </c>
+      <c r="F163" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G163" s="5">
+        <v>0</v>
+      </c>
+      <c r="H163" s="5">
+        <v>0</v>
+      </c>
+      <c r="I163" s="5">
+        <v>0</v>
+      </c>
+      <c r="J163" s="5">
+        <v>0</v>
+      </c>
+      <c r="K163" s="5">
+        <v>0</v>
+      </c>
+      <c r="L163" s="5">
+        <v>0</v>
+      </c>
+      <c r="M163" s="5">
+        <v>0</v>
+      </c>
+      <c r="N163" s="5">
+        <v>0</v>
+      </c>
+      <c r="O163" s="5">
+        <v>0</v>
+      </c>
+      <c r="P163" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="5">
+        <v>0</v>
+      </c>
+      <c r="R163" s="5">
+        <v>1</v>
+      </c>
+      <c r="S163" s="5">
+        <v>0</v>
+      </c>
+      <c r="T163" s="5">
+        <v>2</v>
+      </c>
+      <c r="U163" s="5">
+        <v>3</v>
+      </c>
+      <c r="V163" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="W163" s="5">
+        <v>83</v>
+      </c>
+      <c r="X163" s="5">
+        <v>47</v>
+      </c>
+      <c r="Y163" s="5">
+        <v>62</v>
+      </c>
+      <c r="Z163" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="AA163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE163" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF163" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG163" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH163" s="5">
+        <v>5</v>
+      </c>
+      <c r="AI163" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AJ163" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK163" s="5">
+        <v>16</v>
+      </c>
+      <c r="AL163" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="AM163" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN163" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO163" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP163" s="5">
+        <v>21</v>
+      </c>
+      <c r="AQ163" s="5">
+        <v>3</v>
+      </c>
+      <c r="AR163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT163" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU163" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV163" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW163" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX163" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY163" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ163" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA163" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB163" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC163" s="5">
+        <v>1</v>
+      </c>
+      <c r="BD163" s="5">
+        <v>1</v>
+      </c>
+      <c r="BE163" s="5"/>
+      <c r="BF163" s="5"/>
+      <c r="BG163" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH163" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI163" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ163" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK163" s="5"/>
+      <c r="BL163" s="5"/>
+      <c r="BM163" s="5"/>
+      <c r="BN163" s="5"/>
+    </row>
+    <row r="164" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B164" s="5">
+        <v>95</v>
+      </c>
+      <c r="C164" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D164" s="5">
+        <v>0</v>
+      </c>
+      <c r="E164" s="5">
+        <v>0</v>
+      </c>
+      <c r="F164" s="5">
+        <v>0</v>
+      </c>
+      <c r="G164" s="5">
+        <v>0</v>
+      </c>
+      <c r="H164" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="I164" s="5">
+        <v>0</v>
+      </c>
+      <c r="J164" s="5">
+        <v>0</v>
+      </c>
+      <c r="K164" s="5">
+        <v>0</v>
+      </c>
+      <c r="L164" s="5">
+        <v>0</v>
+      </c>
+      <c r="M164" s="5">
+        <v>0</v>
+      </c>
+      <c r="N164" s="5">
+        <v>0</v>
+      </c>
+      <c r="O164" s="5">
+        <v>0</v>
+      </c>
+      <c r="P164" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="5">
+        <v>0</v>
+      </c>
+      <c r="R164" s="5">
+        <v>0</v>
+      </c>
+      <c r="S164" s="5">
+        <v>0</v>
+      </c>
+      <c r="T164" s="5">
+        <v>0</v>
+      </c>
+      <c r="U164" s="5">
+        <v>0</v>
+      </c>
+      <c r="V164" s="7">
+        <v>0</v>
+      </c>
+      <c r="W164" s="5">
+        <v>55</v>
+      </c>
+      <c r="X164" s="5">
+        <v>43</v>
+      </c>
+      <c r="Y164" s="5">
+        <v>46</v>
+      </c>
+      <c r="Z164" s="7">
+        <v>0.93</v>
+      </c>
+      <c r="AA164" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF164" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG164" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH164" s="5">
+        <v>3</v>
+      </c>
+      <c r="AI164" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="AJ164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK164" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL164" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM164" s="5">
+        <v>4</v>
+      </c>
+      <c r="AN164" s="5">
+        <v>4</v>
+      </c>
+      <c r="AO164" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP164" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT164" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV164" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX164" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY164" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ164" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA164" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB164" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC164" s="5">
+        <v>1</v>
+      </c>
+      <c r="BD164" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE164" s="5"/>
+      <c r="BF164" s="5"/>
+      <c r="BG164" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH164" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI164" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ164" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK164" s="5"/>
+      <c r="BL164" s="5"/>
+      <c r="BM164" s="5"/>
+      <c r="BN164" s="5"/>
+    </row>
+    <row r="165" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A165" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B165" s="5">
+        <v>95</v>
+      </c>
+      <c r="C165" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D165" s="5">
+        <v>0</v>
+      </c>
+      <c r="E165" s="5">
+        <v>0</v>
+      </c>
+      <c r="F165" s="5">
+        <v>0</v>
+      </c>
+      <c r="G165" s="5">
+        <v>0</v>
+      </c>
+      <c r="H165" s="5">
+        <v>0</v>
+      </c>
+      <c r="I165" s="5">
+        <v>0</v>
+      </c>
+      <c r="J165" s="5">
+        <v>0</v>
+      </c>
+      <c r="K165" s="5">
+        <v>0</v>
+      </c>
+      <c r="L165" s="5">
+        <v>0</v>
+      </c>
+      <c r="M165" s="5">
+        <v>0</v>
+      </c>
+      <c r="N165" s="5">
+        <v>0</v>
+      </c>
+      <c r="O165" s="5">
+        <v>0</v>
+      </c>
+      <c r="P165" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="5">
+        <v>0</v>
+      </c>
+      <c r="R165" s="5">
+        <v>0</v>
+      </c>
+      <c r="S165" s="5">
+        <v>0</v>
+      </c>
+      <c r="T165" s="5">
+        <v>0</v>
+      </c>
+      <c r="U165" s="5">
+        <v>1</v>
+      </c>
+      <c r="V165" s="7">
+        <v>0</v>
+      </c>
+      <c r="W165" s="5">
+        <v>44</v>
+      </c>
+      <c r="X165" s="5">
+        <v>33</v>
+      </c>
+      <c r="Y165" s="5">
+        <v>37</v>
+      </c>
+      <c r="Z165" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="AA165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD165" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE165" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF165" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI165" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ165" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK165" s="5">
+        <v>8</v>
+      </c>
+      <c r="AL165" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="AM165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO165" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP165" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV165" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX165" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY165" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ165" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA165" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB165" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC165" s="5">
+        <v>2</v>
+      </c>
+      <c r="BD165" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE165" s="5"/>
+      <c r="BF165" s="5"/>
+      <c r="BG165" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH165" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI165" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ165" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK165" s="5"/>
+      <c r="BL165" s="5"/>
+      <c r="BM165" s="5"/>
+      <c r="BN165" s="5"/>
+    </row>
+    <row r="166" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B166" s="5">
+        <v>95</v>
+      </c>
+      <c r="C166" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D166" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="E166" s="5">
+        <v>0</v>
+      </c>
+      <c r="F166" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="G166" s="5">
+        <v>0</v>
+      </c>
+      <c r="H166" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="I166" s="5">
+        <v>0</v>
+      </c>
+      <c r="J166" s="5">
+        <v>0</v>
+      </c>
+      <c r="K166" s="5">
+        <v>0</v>
+      </c>
+      <c r="L166" s="5">
+        <v>0</v>
+      </c>
+      <c r="M166" s="5">
+        <v>0</v>
+      </c>
+      <c r="N166" s="5">
+        <v>0</v>
+      </c>
+      <c r="O166" s="5">
+        <v>0</v>
+      </c>
+      <c r="P166" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q166" s="5">
+        <v>0</v>
+      </c>
+      <c r="R166" s="5">
+        <v>1</v>
+      </c>
+      <c r="S166" s="5">
+        <v>0</v>
+      </c>
+      <c r="T166" s="5">
+        <v>1</v>
+      </c>
+      <c r="U166" s="5">
+        <v>1</v>
+      </c>
+      <c r="V166" s="7">
+        <v>1</v>
+      </c>
+      <c r="W166" s="5">
+        <v>65</v>
+      </c>
+      <c r="X166" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y166" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z166" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AA166" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF166" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG166" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH166" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI166" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ166" s="5">
+        <v>6</v>
+      </c>
+      <c r="AK166" s="5">
+        <v>25</v>
+      </c>
+      <c r="AL166" s="7">
+        <v>0.24</v>
+      </c>
+      <c r="AM166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN166" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO166" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP166" s="5">
+        <v>15</v>
+      </c>
+      <c r="AQ166" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR166" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY166" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ166" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA166" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB166" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC166" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD166" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE166" s="5"/>
+      <c r="BF166" s="5"/>
+      <c r="BG166" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH166" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI166" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ166" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK166" s="5"/>
+      <c r="BL166" s="5"/>
+      <c r="BM166" s="5"/>
+      <c r="BN166" s="5"/>
+    </row>
+    <row r="167" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A167" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B167" s="5">
+        <v>13</v>
+      </c>
+      <c r="C167" s="5">
+        <v>0</v>
+      </c>
+      <c r="D167" s="5">
+        <v>0</v>
+      </c>
+      <c r="E167" s="5">
+        <v>0</v>
+      </c>
+      <c r="F167" s="5">
+        <v>0</v>
+      </c>
+      <c r="G167" s="5">
+        <v>0</v>
+      </c>
+      <c r="H167" s="5">
+        <v>0</v>
+      </c>
+      <c r="I167" s="5">
+        <v>0</v>
+      </c>
+      <c r="J167" s="5">
+        <v>0</v>
+      </c>
+      <c r="K167" s="5">
+        <v>0</v>
+      </c>
+      <c r="L167" s="5">
+        <v>0</v>
+      </c>
+      <c r="M167" s="5">
+        <v>0</v>
+      </c>
+      <c r="N167" s="5">
+        <v>0</v>
+      </c>
+      <c r="O167" s="5">
+        <v>0</v>
+      </c>
+      <c r="P167" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q167" s="5">
+        <v>0</v>
+      </c>
+      <c r="R167" s="5">
+        <v>0</v>
+      </c>
+      <c r="S167" s="5">
+        <v>0</v>
+      </c>
+      <c r="T167" s="5">
+        <v>1</v>
+      </c>
+      <c r="U167" s="5">
+        <v>1</v>
+      </c>
+      <c r="V167" s="7">
+        <v>1</v>
+      </c>
+      <c r="W167" s="5">
+        <v>14</v>
+      </c>
+      <c r="X167" s="5">
+        <v>8</v>
+      </c>
+      <c r="Y167" s="5">
+        <v>12</v>
+      </c>
+      <c r="Z167" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AA167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE167" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF167" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH167" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI167" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ167" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK167" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL167" s="7">
+        <v>1</v>
+      </c>
+      <c r="AM167" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN167" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO167" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP167" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY167" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ167" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA167" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB167" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC167" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD167" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE167" s="5"/>
+      <c r="BF167" s="5"/>
+      <c r="BG167" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH167" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI167" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ167" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK167" s="5"/>
+      <c r="BL167" s="5"/>
+      <c r="BM167" s="5"/>
+      <c r="BN167" s="5"/>
+    </row>
+    <row r="168" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A168" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B168" s="5">
+        <v>95</v>
+      </c>
+      <c r="C168" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D168" s="5">
+        <v>0</v>
+      </c>
+      <c r="E168" s="5">
+        <v>0</v>
+      </c>
+      <c r="F168" s="5">
+        <v>0</v>
+      </c>
+      <c r="G168" s="5">
+        <v>0</v>
+      </c>
+      <c r="H168" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="I168" s="5">
+        <v>0</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0</v>
+      </c>
+      <c r="K168" s="5">
+        <v>0</v>
+      </c>
+      <c r="L168" s="5">
+        <v>0</v>
+      </c>
+      <c r="M168" s="5">
+        <v>0</v>
+      </c>
+      <c r="N168" s="5">
+        <v>0</v>
+      </c>
+      <c r="O168" s="5">
+        <v>0</v>
+      </c>
+      <c r="P168" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q168" s="5">
+        <v>0</v>
+      </c>
+      <c r="R168" s="5">
+        <v>0</v>
+      </c>
+      <c r="S168" s="5">
+        <v>0</v>
+      </c>
+      <c r="T168" s="5">
+        <v>0</v>
+      </c>
+      <c r="U168" s="5">
+        <v>3</v>
+      </c>
+      <c r="V168" s="7">
+        <v>0</v>
+      </c>
+      <c r="W168" s="5">
+        <v>31</v>
+      </c>
+      <c r="X168" s="5">
+        <v>15</v>
+      </c>
+      <c r="Y168" s="5">
+        <v>20</v>
+      </c>
+      <c r="Z168" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="AA168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC168" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD168" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE168" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF168" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AG168" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH168" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI168" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ168" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK168" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL168" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="AM168" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN168" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO168" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP168" s="5">
+        <v>10</v>
+      </c>
+      <c r="AQ168" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU168" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV168" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW168" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX168" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY168" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ168" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA168" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB168" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC168" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD168" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE168" s="5"/>
+      <c r="BF168" s="5"/>
+      <c r="BG168" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH168" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI168" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ168" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK168" s="5"/>
+      <c r="BL168" s="5"/>
+      <c r="BM168" s="5"/>
+      <c r="BN168" s="5"/>
+    </row>
+    <row r="169" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A169" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B169" s="5">
+        <v>95</v>
+      </c>
+      <c r="C169" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D169" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="E169" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F169" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="G169" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H169" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="I169" s="5">
+        <v>0</v>
+      </c>
+      <c r="J169" s="5">
+        <v>0</v>
+      </c>
+      <c r="K169" s="5">
+        <v>0</v>
+      </c>
+      <c r="L169" s="5">
+        <v>0</v>
+      </c>
+      <c r="M169" s="5">
+        <v>0</v>
+      </c>
+      <c r="N169" s="5">
+        <v>0</v>
+      </c>
+      <c r="O169" s="5">
+        <v>0</v>
+      </c>
+      <c r="P169" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q169" s="5">
+        <v>1</v>
+      </c>
+      <c r="R169" s="5">
+        <v>1</v>
+      </c>
+      <c r="S169" s="5">
+        <v>2</v>
+      </c>
+      <c r="T169" s="5">
+        <v>5</v>
+      </c>
+      <c r="U169" s="5">
+        <v>7</v>
+      </c>
+      <c r="V169" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="W169" s="5">
+        <v>69</v>
+      </c>
+      <c r="X169" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y169" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z169" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="AA169" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD169" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE169" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF169" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AG169" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH169" s="5">
+        <v>3</v>
+      </c>
+      <c r="AI169" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ169" s="5">
+        <v>10</v>
+      </c>
+      <c r="AK169" s="5">
+        <v>23</v>
+      </c>
+      <c r="AL169" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="AM169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO169" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP169" s="5">
+        <v>15</v>
+      </c>
+      <c r="AQ169" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR169" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS169" s="5">
+        <v>2</v>
+      </c>
+      <c r="AT169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY169" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ169" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA169" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB169" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC169" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD169" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE169" s="5"/>
+      <c r="BF169" s="5"/>
+      <c r="BG169" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH169" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI169" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ169" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK169" s="5"/>
+      <c r="BL169" s="5"/>
+      <c r="BM169" s="5"/>
+      <c r="BN169" s="5"/>
+    </row>
+    <row r="170" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A170" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B170" s="5">
+        <v>95</v>
+      </c>
+      <c r="C170" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D170" s="5">
+        <v>0</v>
+      </c>
+      <c r="E170" s="5">
+        <v>0</v>
+      </c>
+      <c r="F170" s="5">
+        <v>0</v>
+      </c>
+      <c r="G170" s="5">
+        <v>0</v>
+      </c>
+      <c r="H170" s="5">
+        <v>0</v>
+      </c>
+      <c r="I170" s="5">
+        <v>0</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0</v>
+      </c>
+      <c r="K170" s="5">
+        <v>0</v>
+      </c>
+      <c r="L170" s="5">
+        <v>4</v>
+      </c>
+      <c r="M170" s="5">
+        <v>5</v>
+      </c>
+      <c r="N170" s="5">
+        <v>1</v>
+      </c>
+      <c r="O170" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P170" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="Q170" s="5">
+        <v>0</v>
+      </c>
+      <c r="R170" s="5">
+        <v>0</v>
+      </c>
+      <c r="S170" s="5">
+        <v>0</v>
+      </c>
+      <c r="T170" s="5">
+        <v>0</v>
+      </c>
+      <c r="U170" s="5">
+        <v>0</v>
+      </c>
+      <c r="V170" s="7">
+        <v>0</v>
+      </c>
+      <c r="W170" s="5">
+        <v>27</v>
+      </c>
+      <c r="X170" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y170" s="5">
+        <v>24</v>
+      </c>
+      <c r="Z170" s="7">
+        <v>0.79</v>
+      </c>
+      <c r="AA170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF170" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH170" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI170" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL170" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO170" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT170" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV170" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY170" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ170" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA170" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB170" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC170" s="5">
+        <v>2</v>
+      </c>
+      <c r="BD170" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE170" s="5"/>
+      <c r="BF170" s="5"/>
+      <c r="BG170" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH170" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI170" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ170" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK170" s="5"/>
+      <c r="BL170" s="5"/>
+      <c r="BM170" s="5"/>
+      <c r="BN170" s="5"/>
+    </row>
+    <row r="171" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A171" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B171" s="5">
+        <v>82</v>
+      </c>
+      <c r="C171" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D171" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E171" s="5">
+        <v>0</v>
+      </c>
+      <c r="F171" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G171" s="5">
+        <v>0</v>
+      </c>
+      <c r="H171" s="5">
+        <v>0</v>
+      </c>
+      <c r="I171" s="5">
+        <v>0</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0</v>
+      </c>
+      <c r="K171" s="5">
+        <v>0</v>
+      </c>
+      <c r="L171" s="5">
+        <v>0</v>
+      </c>
+      <c r="M171" s="5">
+        <v>0</v>
+      </c>
+      <c r="N171" s="5">
+        <v>0</v>
+      </c>
+      <c r="O171" s="5">
+        <v>0</v>
+      </c>
+      <c r="P171" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q171" s="5">
+        <v>0</v>
+      </c>
+      <c r="R171" s="5">
+        <v>1</v>
+      </c>
+      <c r="S171" s="5">
+        <v>0</v>
+      </c>
+      <c r="T171" s="5">
+        <v>0</v>
+      </c>
+      <c r="U171" s="5">
+        <v>2</v>
+      </c>
+      <c r="V171" s="7">
+        <v>0</v>
+      </c>
+      <c r="W171" s="5">
+        <v>40</v>
+      </c>
+      <c r="X171" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y171" s="5">
+        <v>22</v>
+      </c>
+      <c r="Z171" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="AA171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF171" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH171" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI171" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AJ171" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK171" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL171" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="AM171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO171" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP171" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX171" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY171" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ171" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA171" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB171" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC171" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD171" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE171" s="5"/>
+      <c r="BF171" s="5"/>
+      <c r="BG171" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH171" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI171" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ171" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK171" s="5"/>
+      <c r="BL171" s="5"/>
+      <c r="BM171" s="5"/>
+      <c r="BN171" s="5"/>
+    </row>
+    <row r="172" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A172" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B172" s="5">
+        <v>71</v>
+      </c>
+      <c r="C172" s="5">
+        <v>-1</v>
+      </c>
+      <c r="D172" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="E172" s="5">
+        <v>0</v>
+      </c>
+      <c r="F172" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="G172" s="5">
+        <v>0</v>
+      </c>
+      <c r="H172" s="5">
+        <v>0</v>
+      </c>
+      <c r="I172" s="5">
+        <v>0</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0</v>
+      </c>
+      <c r="K172" s="5">
+        <v>0</v>
+      </c>
+      <c r="L172" s="5">
+        <v>0</v>
+      </c>
+      <c r="M172" s="5">
+        <v>0</v>
+      </c>
+      <c r="N172" s="5">
+        <v>0</v>
+      </c>
+      <c r="O172" s="5">
+        <v>0</v>
+      </c>
+      <c r="P172" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q172" s="5">
+        <v>0</v>
+      </c>
+      <c r="R172" s="5">
+        <v>1</v>
+      </c>
+      <c r="S172" s="5">
+        <v>0</v>
+      </c>
+      <c r="T172" s="5">
+        <v>0</v>
+      </c>
+      <c r="U172" s="5">
+        <v>0</v>
+      </c>
+      <c r="V172" s="7">
+        <v>0</v>
+      </c>
+      <c r="W172" s="5">
+        <v>30</v>
+      </c>
+      <c r="X172" s="5">
+        <v>17</v>
+      </c>
+      <c r="Y172" s="5">
+        <v>19</v>
+      </c>
+      <c r="Z172" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="AA172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF172" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG172" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH172" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI172" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AJ172" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK172" s="5">
+        <v>8</v>
+      </c>
+      <c r="AL172" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="AM172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN172" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO172" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP172" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ172" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR172" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV172" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY172" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ172" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA172" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB172" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC172" s="5">
+        <v>2</v>
+      </c>
+      <c r="BD172" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE172" s="5"/>
+      <c r="BF172" s="5"/>
+      <c r="BG172" s="5">
+        <v>13</v>
+      </c>
+      <c r="BH172" s="8">
+        <v>45780</v>
+      </c>
+      <c r="BI172" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ172" s="5">
+        <v>30</v>
+      </c>
+      <c r="BK172" s="5"/>
+      <c r="BL172" s="5"/>
+      <c r="BM172" s="5"/>
+      <c r="BN172" s="5"/>
+    </row>
+    <row r="173" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A173" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B173" s="5">
+        <v>94</v>
+      </c>
+      <c r="C173" s="5">
+        <v>3</v>
+      </c>
+      <c r="D173" s="5">
+        <v>0</v>
+      </c>
+      <c r="E173" s="5">
+        <v>0</v>
+      </c>
+      <c r="F173" s="5">
+        <v>0</v>
+      </c>
+      <c r="G173" s="5">
+        <v>0</v>
+      </c>
+      <c r="H173" s="5">
+        <v>0</v>
+      </c>
+      <c r="I173" s="5">
+        <v>0</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0</v>
+      </c>
+      <c r="K173" s="5">
+        <v>0</v>
+      </c>
+      <c r="L173" s="5">
+        <v>4</v>
+      </c>
+      <c r="M173" s="5">
+        <v>3</v>
+      </c>
+      <c r="N173" s="5">
+        <v>0</v>
+      </c>
+      <c r="O173" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="P173" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="Q173" s="5">
+        <v>0</v>
+      </c>
+      <c r="R173" s="5">
+        <v>0</v>
+      </c>
+      <c r="S173" s="5">
+        <v>0</v>
+      </c>
+      <c r="T173" s="5">
+        <v>0</v>
+      </c>
+      <c r="U173" s="5">
+        <v>0</v>
+      </c>
+      <c r="V173" s="7">
+        <v>0</v>
+      </c>
+      <c r="W173" s="5">
+        <v>31</v>
+      </c>
+      <c r="X173" s="5">
+        <v>21</v>
+      </c>
+      <c r="Y173" s="5">
+        <v>26</v>
+      </c>
+      <c r="Z173" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AA173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF173" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG173" s="5">
+        <v>12</v>
+      </c>
+      <c r="AH173" s="5">
+        <v>17</v>
+      </c>
+      <c r="AI173" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="AJ173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL173" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM173" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN173" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO173" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT173" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV173" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY173" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ173" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA173" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB173" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC173" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="BD173" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE173" s="5"/>
+      <c r="BF173" s="5"/>
+      <c r="BG173" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH173" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI173" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ173" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK173" s="5"/>
+      <c r="BL173" s="5"/>
+      <c r="BM173" s="5"/>
+      <c r="BN173" s="5"/>
+    </row>
+    <row r="174" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A174" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" s="5">
+        <v>94</v>
+      </c>
+      <c r="C174" s="5">
+        <v>3</v>
+      </c>
+      <c r="D174" s="5">
+        <v>0</v>
+      </c>
+      <c r="E174" s="5">
+        <v>0</v>
+      </c>
+      <c r="F174" s="5">
+        <v>0</v>
+      </c>
+      <c r="G174" s="5">
+        <v>0</v>
+      </c>
+      <c r="H174" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="I174" s="5">
+        <v>0</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0</v>
+      </c>
+      <c r="K174" s="5">
+        <v>0</v>
+      </c>
+      <c r="L174" s="5">
+        <v>0</v>
+      </c>
+      <c r="M174" s="5">
+        <v>0</v>
+      </c>
+      <c r="N174" s="5">
+        <v>0</v>
+      </c>
+      <c r="O174" s="5">
+        <v>0</v>
+      </c>
+      <c r="P174" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="5">
+        <v>0</v>
+      </c>
+      <c r="R174" s="5">
+        <v>0</v>
+      </c>
+      <c r="S174" s="5">
+        <v>0</v>
+      </c>
+      <c r="T174" s="5">
+        <v>1</v>
+      </c>
+      <c r="U174" s="5">
+        <v>2</v>
+      </c>
+      <c r="V174" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W174" s="5">
+        <v>37</v>
+      </c>
+      <c r="X174" s="5">
+        <v>14</v>
+      </c>
+      <c r="Y174" s="5">
+        <v>29</v>
+      </c>
+      <c r="Z174" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="AA174" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE174" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF174" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG174" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH174" s="5">
+        <v>10</v>
+      </c>
+      <c r="AI174" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AJ174" s="5">
+        <v>7</v>
+      </c>
+      <c r="AK174" s="5">
+        <v>17</v>
+      </c>
+      <c r="AL174" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="AM174" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN174" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO174" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP174" s="5">
+        <v>13</v>
+      </c>
+      <c r="AQ174" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT174" s="5">
+        <v>4</v>
+      </c>
+      <c r="AU174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV174" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX174" s="5">
+        <v>4</v>
+      </c>
+      <c r="AY174" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ174" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA174" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB174" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC174" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BD174" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE174" s="5"/>
+      <c r="BF174" s="5"/>
+      <c r="BG174" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH174" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI174" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ174" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK174" s="5"/>
+      <c r="BL174" s="5"/>
+      <c r="BM174" s="5"/>
+      <c r="BN174" s="5"/>
+    </row>
+    <row r="175" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A175" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B175" s="5">
+        <v>93</v>
+      </c>
+      <c r="C175" s="5">
+        <v>3</v>
+      </c>
+      <c r="D175" s="5">
+        <v>0</v>
+      </c>
+      <c r="E175" s="5">
+        <v>0</v>
+      </c>
+      <c r="F175" s="5">
+        <v>0</v>
+      </c>
+      <c r="G175" s="5">
+        <v>0</v>
+      </c>
+      <c r="H175" s="5">
+        <v>0</v>
+      </c>
+      <c r="I175" s="5">
+        <v>0</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0</v>
+      </c>
+      <c r="K175" s="5">
+        <v>0</v>
+      </c>
+      <c r="L175" s="5">
+        <v>0</v>
+      </c>
+      <c r="M175" s="5">
+        <v>0</v>
+      </c>
+      <c r="N175" s="5">
+        <v>0</v>
+      </c>
+      <c r="O175" s="5">
+        <v>0</v>
+      </c>
+      <c r="P175" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q175" s="5">
+        <v>0</v>
+      </c>
+      <c r="R175" s="5">
+        <v>0</v>
+      </c>
+      <c r="S175" s="5">
+        <v>0</v>
+      </c>
+      <c r="T175" s="5">
+        <v>1</v>
+      </c>
+      <c r="U175" s="5">
+        <v>1</v>
+      </c>
+      <c r="V175" s="7">
+        <v>1</v>
+      </c>
+      <c r="W175" s="5">
+        <v>29</v>
+      </c>
+      <c r="X175" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y175" s="5">
+        <v>22</v>
+      </c>
+      <c r="Z175" s="7">
+        <v>0.91</v>
+      </c>
+      <c r="AA175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF175" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG175" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH175" s="5">
+        <v>5</v>
+      </c>
+      <c r="AI175" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AJ175" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK175" s="5">
+        <v>7</v>
+      </c>
+      <c r="AL175" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="AM175" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN175" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO175" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP175" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ175" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT175" s="5">
+        <v>3</v>
+      </c>
+      <c r="AU175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV175" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY175" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ175" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA175" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB175" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC175" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BD175" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE175" s="5"/>
+      <c r="BF175" s="5"/>
+      <c r="BG175" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH175" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI175" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ175" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK175" s="5"/>
+      <c r="BL175" s="5"/>
+      <c r="BM175" s="5"/>
+      <c r="BN175" s="5"/>
+    </row>
+    <row r="176" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A176" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B176" s="5">
+        <v>94</v>
+      </c>
+      <c r="C176" s="5">
+        <v>3</v>
+      </c>
+      <c r="D176" s="5">
+        <v>0</v>
+      </c>
+      <c r="E176" s="5">
+        <v>0</v>
+      </c>
+      <c r="F176" s="5">
+        <v>0</v>
+      </c>
+      <c r="G176" s="5">
+        <v>0</v>
+      </c>
+      <c r="H176" s="5">
+        <v>0</v>
+      </c>
+      <c r="I176" s="5">
+        <v>0</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0</v>
+      </c>
+      <c r="K176" s="5">
+        <v>0</v>
+      </c>
+      <c r="L176" s="5">
+        <v>0</v>
+      </c>
+      <c r="M176" s="5">
+        <v>0</v>
+      </c>
+      <c r="N176" s="5">
+        <v>0</v>
+      </c>
+      <c r="O176" s="5">
+        <v>0</v>
+      </c>
+      <c r="P176" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q176" s="5">
+        <v>0</v>
+      </c>
+      <c r="R176" s="5">
+        <v>0</v>
+      </c>
+      <c r="S176" s="5">
+        <v>0</v>
+      </c>
+      <c r="T176" s="5">
+        <v>0</v>
+      </c>
+      <c r="U176" s="5">
+        <v>0</v>
+      </c>
+      <c r="V176" s="7">
+        <v>0</v>
+      </c>
+      <c r="W176" s="5">
+        <v>45</v>
+      </c>
+      <c r="X176" s="5">
+        <v>25</v>
+      </c>
+      <c r="Y176" s="5">
+        <v>31</v>
+      </c>
+      <c r="Z176" s="7">
+        <v>0.81</v>
+      </c>
+      <c r="AA176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF176" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG176" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH176" s="5">
+        <v>5</v>
+      </c>
+      <c r="AI176" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="AJ176" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK176" s="5">
+        <v>7</v>
+      </c>
+      <c r="AL176" s="7">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AM176" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN176" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO176" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP176" s="5">
+        <v>9</v>
+      </c>
+      <c r="AQ176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR176" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT176" s="5">
+        <v>3</v>
+      </c>
+      <c r="AU176" s="5">
+        <v>2</v>
+      </c>
+      <c r="AV176" s="5">
+        <v>6</v>
+      </c>
+      <c r="AW176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY176" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ176" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA176" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB176" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC176" s="5">
+        <v>5.88</v>
+      </c>
+      <c r="BD176" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE176" s="5"/>
+      <c r="BF176" s="5"/>
+      <c r="BG176" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH176" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI176" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ176" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK176" s="5"/>
+      <c r="BL176" s="5"/>
+      <c r="BM176" s="5"/>
+      <c r="BN176" s="5"/>
+    </row>
+    <row r="177" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A177" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177" s="5">
+        <v>94</v>
+      </c>
+      <c r="C177" s="5">
+        <v>3</v>
+      </c>
+      <c r="D177" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="E177" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="F177" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="G177" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="H177" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="I177" s="5">
+        <v>0</v>
+      </c>
+      <c r="J177" s="5">
+        <v>0</v>
+      </c>
+      <c r="K177" s="5">
+        <v>0</v>
+      </c>
+      <c r="L177" s="5">
+        <v>0</v>
+      </c>
+      <c r="M177" s="5">
+        <v>0</v>
+      </c>
+      <c r="N177" s="5">
+        <v>0</v>
+      </c>
+      <c r="O177" s="5">
+        <v>0</v>
+      </c>
+      <c r="P177" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="5">
+        <v>1</v>
+      </c>
+      <c r="R177" s="5">
+        <v>0</v>
+      </c>
+      <c r="S177" s="5">
+        <v>0</v>
+      </c>
+      <c r="T177" s="5">
+        <v>3</v>
+      </c>
+      <c r="U177" s="5">
+        <v>3</v>
+      </c>
+      <c r="V177" s="7">
+        <v>1</v>
+      </c>
+      <c r="W177" s="5">
+        <v>55</v>
+      </c>
+      <c r="X177" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y177" s="5">
+        <v>39</v>
+      </c>
+      <c r="Z177" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="AA177" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB177" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC177" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF177" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG177" s="5">
+        <v>6</v>
+      </c>
+      <c r="AH177" s="5">
+        <v>11</v>
+      </c>
+      <c r="AI177" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ177" s="5">
+        <v>7</v>
+      </c>
+      <c r="AK177" s="5">
+        <v>18</v>
+      </c>
+      <c r="AL177" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="AM177" s="5">
+        <v>6</v>
+      </c>
+      <c r="AN177" s="5">
+        <v>10</v>
+      </c>
+      <c r="AO177" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="AP177" s="5">
+        <v>16</v>
+      </c>
+      <c r="AQ177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AR177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS177" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU177" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV177" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW177" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX177" s="5">
+        <v>2</v>
+      </c>
+      <c r="AY177" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ177" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA177" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB177" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC177" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD177" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE177" s="5"/>
+      <c r="BF177" s="5"/>
+      <c r="BG177" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH177" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI177" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ177" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK177" s="5"/>
+      <c r="BL177" s="5"/>
+      <c r="BM177" s="5"/>
+      <c r="BN177" s="5"/>
+    </row>
+    <row r="178" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A178" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B178" s="5">
+        <v>85</v>
+      </c>
+      <c r="C178" s="5">
+        <v>3</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0</v>
+      </c>
+      <c r="E178" s="5">
+        <v>0</v>
+      </c>
+      <c r="F178" s="5">
+        <v>0</v>
+      </c>
+      <c r="G178" s="5">
+        <v>0</v>
+      </c>
+      <c r="H178" s="5">
+        <v>0</v>
+      </c>
+      <c r="I178" s="5">
+        <v>0</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0</v>
+      </c>
+      <c r="K178" s="5">
+        <v>0</v>
+      </c>
+      <c r="L178" s="5">
+        <v>0</v>
+      </c>
+      <c r="M178" s="5">
+        <v>0</v>
+      </c>
+      <c r="N178" s="5">
+        <v>0</v>
+      </c>
+      <c r="O178" s="5">
+        <v>0</v>
+      </c>
+      <c r="P178" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="5">
+        <v>0</v>
+      </c>
+      <c r="R178" s="5">
+        <v>1</v>
+      </c>
+      <c r="S178" s="5">
+        <v>0</v>
+      </c>
+      <c r="T178" s="5">
+        <v>0</v>
+      </c>
+      <c r="U178" s="5">
+        <v>0</v>
+      </c>
+      <c r="V178" s="7">
+        <v>0</v>
+      </c>
+      <c r="W178" s="5">
+        <v>29</v>
+      </c>
+      <c r="X178" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y178" s="5">
+        <v>22</v>
+      </c>
+      <c r="Z178" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="AA178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF178" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG178" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH178" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI178" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AJ178" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK178" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL178" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="AM178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO178" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP178" s="5">
+        <v>7</v>
+      </c>
+      <c r="AQ178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT178" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY178" s="5">
+        <v>1</v>
+      </c>
+      <c r="AZ178" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA178" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB178" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC178" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BD178" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BE178" s="5"/>
+      <c r="BF178" s="5"/>
+      <c r="BG178" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH178" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI178" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ178" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK178" s="5"/>
+      <c r="BL178" s="5"/>
+      <c r="BM178" s="5"/>
+      <c r="BN178" s="5"/>
+    </row>
+    <row r="179" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A179" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="5">
+        <v>94</v>
+      </c>
+      <c r="C179" s="5">
+        <v>3</v>
+      </c>
+      <c r="D179" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E179" s="5">
+        <v>0</v>
+      </c>
+      <c r="F179" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="G179" s="5">
+        <v>0</v>
+      </c>
+      <c r="H179" s="5">
+        <v>0</v>
+      </c>
+      <c r="I179" s="5">
+        <v>0</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0</v>
+      </c>
+      <c r="K179" s="5">
+        <v>0</v>
+      </c>
+      <c r="L179" s="5">
+        <v>0</v>
+      </c>
+      <c r="M179" s="5">
+        <v>0</v>
+      </c>
+      <c r="N179" s="5">
+        <v>0</v>
+      </c>
+      <c r="O179" s="5">
+        <v>0</v>
+      </c>
+      <c r="P179" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q179" s="5">
+        <v>0</v>
+      </c>
+      <c r="R179" s="5">
+        <v>1</v>
+      </c>
+      <c r="S179" s="5">
+        <v>0</v>
+      </c>
+      <c r="T179" s="5">
+        <v>1</v>
+      </c>
+      <c r="U179" s="5">
+        <v>1</v>
+      </c>
+      <c r="V179" s="7">
+        <v>1</v>
+      </c>
+      <c r="W179" s="5">
+        <v>62</v>
+      </c>
+      <c r="X179" s="5">
+        <v>24</v>
+      </c>
+      <c r="Y179" s="5">
+        <v>38</v>
+      </c>
+      <c r="Z179" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="AA179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF179" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG179" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH179" s="5">
+        <v>9</v>
+      </c>
+      <c r="AI179" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="AJ179" s="5">
+        <v>9</v>
+      </c>
+      <c r="AK179" s="5">
+        <v>21</v>
+      </c>
+      <c r="AL179" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="AM179" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN179" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO179" s="7">
+        <v>1</v>
+      </c>
+      <c r="AP179" s="5">
+        <v>22</v>
+      </c>
+      <c r="AQ179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR179" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT179" s="5">
+        <v>2</v>
+      </c>
+      <c r="AU179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV179" s="5">
+        <v>2</v>
+      </c>
+      <c r="AW179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX179" s="5">
+        <v>3</v>
+      </c>
+      <c r="AY179" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ179" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA179" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB179" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC179" s="5">
+        <v>1.96</v>
+      </c>
+      <c r="BD179" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE179" s="5"/>
+      <c r="BF179" s="5"/>
+      <c r="BG179" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH179" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI179" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ179" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK179" s="5"/>
+      <c r="BL179" s="5"/>
+      <c r="BM179" s="5"/>
+      <c r="BN179" s="5"/>
+    </row>
+    <row r="180" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A180" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" s="5">
+        <v>94</v>
+      </c>
+      <c r="C180" s="5">
+        <v>3</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="E180" s="5">
+        <v>0</v>
+      </c>
+      <c r="F180" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="G180" s="5">
+        <v>0</v>
+      </c>
+      <c r="H180" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="I180" s="5">
+        <v>0</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0</v>
+      </c>
+      <c r="K180" s="5">
+        <v>1</v>
+      </c>
+      <c r="L180" s="5">
+        <v>0</v>
+      </c>
+      <c r="M180" s="5">
+        <v>0</v>
+      </c>
+      <c r="N180" s="5">
+        <v>0</v>
+      </c>
+      <c r="O180" s="5">
+        <v>0</v>
+      </c>
+      <c r="P180" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q180" s="5">
+        <v>0</v>
+      </c>
+      <c r="R180" s="5">
+        <v>1</v>
+      </c>
+      <c r="S180" s="5">
+        <v>0</v>
+      </c>
+      <c r="T180" s="5">
+        <v>6</v>
+      </c>
+      <c r="U180" s="5">
+        <v>6</v>
+      </c>
+      <c r="V180" s="7">
+        <v>1</v>
+      </c>
+      <c r="W180" s="5">
+        <v>48</v>
+      </c>
+      <c r="X180" s="5">
+        <v>18</v>
+      </c>
+      <c r="Y180" s="5">
+        <v>27</v>
+      </c>
+      <c r="Z180" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AA180" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB180" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE180" s="5">
+        <v>2</v>
+      </c>
+      <c r="AF180" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ180" s="5">
+        <v>7</v>
+      </c>
+      <c r="AK180" s="5">
+        <v>12</v>
+      </c>
+      <c r="AL180" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AM180" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN180" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO180" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AP180" s="5">
+        <v>9</v>
+      </c>
+      <c r="AQ180" s="5">
+        <v>3</v>
+      </c>
+      <c r="AR180" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV180" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY180" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ180" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA180" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB180" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC180" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BD180" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE180" s="5"/>
+      <c r="BF180" s="5"/>
+      <c r="BG180" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH180" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI180" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ180" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK180" s="5"/>
+      <c r="BL180" s="5"/>
+      <c r="BM180" s="5"/>
+      <c r="BN180" s="5"/>
+    </row>
+    <row r="181" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A181" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B181" s="5">
+        <v>71</v>
+      </c>
+      <c r="C181" s="5">
+        <v>2</v>
+      </c>
+      <c r="D181" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="E181" s="5">
+        <v>0</v>
+      </c>
+      <c r="F181" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="G181" s="5">
+        <v>0</v>
+      </c>
+      <c r="H181" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="I181" s="5">
+        <v>0</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0</v>
+      </c>
+      <c r="K181" s="5">
+        <v>1</v>
+      </c>
+      <c r="L181" s="5">
+        <v>0</v>
+      </c>
+      <c r="M181" s="5">
+        <v>0</v>
+      </c>
+      <c r="N181" s="5">
+        <v>0</v>
+      </c>
+      <c r="O181" s="5">
+        <v>0</v>
+      </c>
+      <c r="P181" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q181" s="5">
+        <v>1</v>
+      </c>
+      <c r="R181" s="5">
+        <v>0</v>
+      </c>
+      <c r="S181" s="5">
+        <v>0</v>
+      </c>
+      <c r="T181" s="5">
+        <v>2</v>
+      </c>
+      <c r="U181" s="5">
+        <v>3</v>
+      </c>
+      <c r="V181" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="W181" s="5">
+        <v>32</v>
+      </c>
+      <c r="X181" s="5">
+        <v>11</v>
+      </c>
+      <c r="Y181" s="5">
+        <v>17</v>
+      </c>
+      <c r="Z181" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AA181" s="5">
+        <v>2</v>
+      </c>
+      <c r="AB181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD181" s="5">
+        <v>2</v>
+      </c>
+      <c r="AE181" s="5">
+        <v>3</v>
+      </c>
+      <c r="AF181" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AG181" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH181" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI181" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ181" s="5">
+        <v>3</v>
+      </c>
+      <c r="AK181" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL181" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AM181" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN181" s="5">
+        <v>2</v>
+      </c>
+      <c r="AO181" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AP181" s="5">
+        <v>10</v>
+      </c>
+      <c r="AQ181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV181" s="5">
+        <v>1</v>
+      </c>
+      <c r="AW181" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX181" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY181" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ181" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA181" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB181" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC181" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BD181" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BE181" s="5"/>
+      <c r="BF181" s="5"/>
+      <c r="BG181" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH181" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI181" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ181" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK181" s="5"/>
+      <c r="BL181" s="5"/>
+      <c r="BM181" s="5"/>
+      <c r="BN181" s="5"/>
+    </row>
+    <row r="182" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A182" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B182" s="5">
+        <v>94</v>
+      </c>
+      <c r="C182" s="5">
+        <v>3</v>
+      </c>
+      <c r="D182" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E182" s="5">
+        <v>0</v>
+      </c>
+      <c r="F182" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="G182" s="5">
+        <v>0</v>
+      </c>
+      <c r="H182" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="I182" s="5">
+        <v>0</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5">
+        <v>1</v>
+      </c>
+      <c r="L182" s="5">
+        <v>0</v>
+      </c>
+      <c r="M182" s="5">
+        <v>0</v>
+      </c>
+      <c r="N182" s="5">
+        <v>0</v>
+      </c>
+      <c r="O182" s="5">
+        <v>0</v>
+      </c>
+      <c r="P182" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q182" s="5">
+        <v>0</v>
+      </c>
+      <c r="R182" s="5">
+        <v>1</v>
+      </c>
+      <c r="S182" s="5">
+        <v>1</v>
+      </c>
+      <c r="T182" s="5">
+        <v>4</v>
+      </c>
+      <c r="U182" s="5">
+        <v>5</v>
+      </c>
+      <c r="V182" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="W182" s="5">
+        <v>53</v>
+      </c>
+      <c r="X182" s="5">
+        <v>17</v>
+      </c>
+      <c r="Y182" s="5">
+        <v>26</v>
+      </c>
+      <c r="Z182" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="AA182" s="5">
+        <v>3</v>
+      </c>
+      <c r="AB182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF182" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH182" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI182" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ182" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK182" s="5">
+        <v>18</v>
+      </c>
+      <c r="AL182" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN182" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO182" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP182" s="5">
+        <v>16</v>
+      </c>
+      <c r="AQ182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR182" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS182" s="5">
+        <v>3</v>
+      </c>
+      <c r="AT182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY182" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ182" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA182" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB182" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC182" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD182" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE182" s="5"/>
+      <c r="BF182" s="5"/>
+      <c r="BG182" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH182" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI182" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ182" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK182" s="5"/>
+      <c r="BL182" s="5"/>
+      <c r="BM182" s="5"/>
+      <c r="BN182" s="5"/>
+    </row>
+    <row r="183" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A183" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B183" s="5">
+        <v>93</v>
+      </c>
+      <c r="C183" s="5">
+        <v>3</v>
+      </c>
+      <c r="D183" s="5">
+        <v>1</v>
+      </c>
+      <c r="E183" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="F183" s="5">
+        <v>1</v>
+      </c>
+      <c r="G183" s="5">
+        <v>1.88</v>
+      </c>
+      <c r="H183" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="I183" s="5">
+        <v>3</v>
+      </c>
+      <c r="J183" s="5">
+        <v>3</v>
+      </c>
+      <c r="K183" s="5">
+        <v>0</v>
+      </c>
+      <c r="L183" s="5">
+        <v>0</v>
+      </c>
+      <c r="M183" s="5">
+        <v>0</v>
+      </c>
+      <c r="N183" s="5">
+        <v>0</v>
+      </c>
+      <c r="O183" s="5">
+        <v>0</v>
+      </c>
+      <c r="P183" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q183" s="5">
+        <v>3</v>
+      </c>
+      <c r="R183" s="5">
+        <v>0</v>
+      </c>
+      <c r="S183" s="5">
+        <v>0</v>
+      </c>
+      <c r="T183" s="5">
+        <v>1</v>
+      </c>
+      <c r="U183" s="5">
+        <v>2</v>
+      </c>
+      <c r="V183" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W183" s="5">
+        <v>54</v>
+      </c>
+      <c r="X183" s="5">
+        <v>19</v>
+      </c>
+      <c r="Y183" s="5">
+        <v>29</v>
+      </c>
+      <c r="Z183" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="AA183" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE183" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF183" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG183" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH183" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI183" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="AJ183" s="5">
+        <v>8</v>
+      </c>
+      <c r="AK183" s="5">
+        <v>27</v>
+      </c>
+      <c r="AL183" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="AM183" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN183" s="5">
+        <v>13</v>
+      </c>
+      <c r="AO183" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="AP183" s="5">
+        <v>22</v>
+      </c>
+      <c r="AQ183" s="5">
+        <v>4</v>
+      </c>
+      <c r="AR183" s="5">
+        <v>3</v>
+      </c>
+      <c r="AS183" s="5">
+        <v>1</v>
+      </c>
+      <c r="AT183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW183" s="5">
+        <v>1</v>
+      </c>
+      <c r="AX183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY183" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ183" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA183" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB183" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC183" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD183" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="BE183" s="5"/>
+      <c r="BF183" s="5"/>
+      <c r="BG183" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH183" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI183" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ183" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK183" s="5"/>
+      <c r="BL183" s="5"/>
+      <c r="BM183" s="5"/>
+      <c r="BN183" s="5"/>
+    </row>
+    <row r="184" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A184" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B184" s="5">
+        <v>29</v>
+      </c>
+      <c r="C184" s="5">
+        <v>1</v>
+      </c>
+      <c r="D184" s="5">
+        <v>0</v>
+      </c>
+      <c r="E184" s="5">
+        <v>0</v>
+      </c>
+      <c r="F184" s="5">
+        <v>0</v>
+      </c>
+      <c r="G184" s="5">
+        <v>0</v>
+      </c>
+      <c r="H184" s="5">
+        <v>0</v>
+      </c>
+      <c r="I184" s="5">
+        <v>0</v>
+      </c>
+      <c r="J184" s="5">
+        <v>0</v>
+      </c>
+      <c r="K184" s="5">
+        <v>0</v>
+      </c>
+      <c r="L184" s="5">
+        <v>0</v>
+      </c>
+      <c r="M184" s="5">
+        <v>0</v>
+      </c>
+      <c r="N184" s="5">
+        <v>0</v>
+      </c>
+      <c r="O184" s="5">
+        <v>0</v>
+      </c>
+      <c r="P184" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q184" s="5">
+        <v>0</v>
+      </c>
+      <c r="R184" s="5">
+        <v>0</v>
+      </c>
+      <c r="S184" s="5">
+        <v>0</v>
+      </c>
+      <c r="T184" s="5">
+        <v>0</v>
+      </c>
+      <c r="U184" s="5">
+        <v>0</v>
+      </c>
+      <c r="V184" s="7">
+        <v>0</v>
+      </c>
+      <c r="W184" s="5">
+        <v>13</v>
+      </c>
+      <c r="X184" s="5">
+        <v>7</v>
+      </c>
+      <c r="Y184" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z184" s="7">
+        <v>0.78</v>
+      </c>
+      <c r="AA184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF184" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI184" s="7">
+        <v>1</v>
+      </c>
+      <c r="AJ184" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK184" s="5">
+        <v>3</v>
+      </c>
+      <c r="AL184" s="7">
+        <v>0.67</v>
+      </c>
+      <c r="AM184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN184" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO184" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP184" s="5">
+        <v>2</v>
+      </c>
+      <c r="AQ184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY184" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ184" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA184" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB184" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC184" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD184" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE184" s="5"/>
+      <c r="BF184" s="5"/>
+      <c r="BG184" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH184" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI184" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ184" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK184" s="5"/>
+      <c r="BL184" s="5"/>
+      <c r="BM184" s="5"/>
+      <c r="BN184" s="5"/>
+    </row>
+    <row r="185" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A185" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="5">
+        <v>23</v>
+      </c>
+      <c r="C185" s="5">
+        <v>1</v>
+      </c>
+      <c r="D185" s="5">
+        <v>0</v>
+      </c>
+      <c r="E185" s="5">
+        <v>0</v>
+      </c>
+      <c r="F185" s="5">
+        <v>0</v>
+      </c>
+      <c r="G185" s="5">
+        <v>0</v>
+      </c>
+      <c r="H185" s="5">
+        <v>0</v>
+      </c>
+      <c r="I185" s="5">
+        <v>0</v>
+      </c>
+      <c r="J185" s="5">
+        <v>0</v>
+      </c>
+      <c r="K185" s="5">
+        <v>0</v>
+      </c>
+      <c r="L185" s="5">
+        <v>0</v>
+      </c>
+      <c r="M185" s="5">
+        <v>0</v>
+      </c>
+      <c r="N185" s="5">
+        <v>0</v>
+      </c>
+      <c r="O185" s="5">
+        <v>0</v>
+      </c>
+      <c r="P185" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q185" s="5">
+        <v>0</v>
+      </c>
+      <c r="R185" s="5">
+        <v>0</v>
+      </c>
+      <c r="S185" s="5">
+        <v>0</v>
+      </c>
+      <c r="T185" s="5">
+        <v>0</v>
+      </c>
+      <c r="U185" s="5">
+        <v>0</v>
+      </c>
+      <c r="V185" s="7">
+        <v>0</v>
+      </c>
+      <c r="W185" s="5">
+        <v>9</v>
+      </c>
+      <c r="X185" s="5">
+        <v>2</v>
+      </c>
+      <c r="Y185" s="5">
+        <v>4</v>
+      </c>
+      <c r="Z185" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="AA185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE185" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF185" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI185" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK185" s="5">
+        <v>6</v>
+      </c>
+      <c r="AL185" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO185" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP185" s="5">
+        <v>3</v>
+      </c>
+      <c r="AQ185" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT185" s="5">
+        <v>1</v>
+      </c>
+      <c r="AU185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY185" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ185" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA185" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB185" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC185" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD185" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE185" s="5"/>
+      <c r="BF185" s="5"/>
+      <c r="BG185" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH185" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI185" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ185" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK185" s="5"/>
+      <c r="BL185" s="5"/>
+      <c r="BM185" s="5"/>
+      <c r="BN185" s="5"/>
+    </row>
+    <row r="186" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A186" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B186" s="5">
+        <v>1</v>
+      </c>
+      <c r="C186" s="5">
+        <v>0</v>
+      </c>
+      <c r="D186" s="5">
+        <v>0</v>
+      </c>
+      <c r="E186" s="5">
+        <v>0</v>
+      </c>
+      <c r="F186" s="5">
+        <v>0</v>
+      </c>
+      <c r="G186" s="5">
+        <v>0</v>
+      </c>
+      <c r="H186" s="5">
+        <v>0</v>
+      </c>
+      <c r="I186" s="5">
+        <v>0</v>
+      </c>
+      <c r="J186" s="5">
+        <v>0</v>
+      </c>
+      <c r="K186" s="5">
+        <v>0</v>
+      </c>
+      <c r="L186" s="5">
+        <v>0</v>
+      </c>
+      <c r="M186" s="5">
+        <v>0</v>
+      </c>
+      <c r="N186" s="5">
+        <v>0</v>
+      </c>
+      <c r="O186" s="5">
+        <v>0</v>
+      </c>
+      <c r="P186" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q186" s="5">
+        <v>0</v>
+      </c>
+      <c r="R186" s="5">
+        <v>0</v>
+      </c>
+      <c r="S186" s="5">
+        <v>0</v>
+      </c>
+      <c r="T186" s="5">
+        <v>0</v>
+      </c>
+      <c r="U186" s="5">
+        <v>0</v>
+      </c>
+      <c r="V186" s="7">
+        <v>0</v>
+      </c>
+      <c r="W186" s="5">
+        <v>0</v>
+      </c>
+      <c r="X186" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y186" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z186" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF186" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI186" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL186" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO186" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY186" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ186" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA186" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB186" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC186" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD186" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE186" s="5"/>
+      <c r="BF186" s="5"/>
+      <c r="BG186" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH186" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI186" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ186" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK186" s="5"/>
+      <c r="BL186" s="5"/>
+      <c r="BM186" s="5"/>
+      <c r="BN186" s="5"/>
+    </row>
+    <row r="187" spans="1:66" x14ac:dyDescent="0.35">
+      <c r="A187" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="5">
+        <v>1</v>
+      </c>
+      <c r="C187" s="5">
+        <v>0</v>
+      </c>
+      <c r="D187" s="5">
+        <v>0</v>
+      </c>
+      <c r="E187" s="5">
+        <v>0</v>
+      </c>
+      <c r="F187" s="5">
+        <v>0</v>
+      </c>
+      <c r="G187" s="5">
+        <v>0</v>
+      </c>
+      <c r="H187" s="5">
+        <v>0</v>
+      </c>
+      <c r="I187" s="5">
+        <v>0</v>
+      </c>
+      <c r="J187" s="5">
+        <v>0</v>
+      </c>
+      <c r="K187" s="5">
+        <v>0</v>
+      </c>
+      <c r="L187" s="5">
+        <v>0</v>
+      </c>
+      <c r="M187" s="5">
+        <v>0</v>
+      </c>
+      <c r="N187" s="5">
+        <v>0</v>
+      </c>
+      <c r="O187" s="5">
+        <v>0</v>
+      </c>
+      <c r="P187" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q187" s="5">
+        <v>0</v>
+      </c>
+      <c r="R187" s="5">
+        <v>0</v>
+      </c>
+      <c r="S187" s="5">
+        <v>0</v>
+      </c>
+      <c r="T187" s="5">
+        <v>0</v>
+      </c>
+      <c r="U187" s="5">
+        <v>0</v>
+      </c>
+      <c r="V187" s="7">
+        <v>0</v>
+      </c>
+      <c r="W187" s="5">
+        <v>0</v>
+      </c>
+      <c r="X187" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y187" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z187" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF187" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI187" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL187" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AN187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO187" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AY187" s="5">
+        <v>0</v>
+      </c>
+      <c r="AZ187" s="5">
+        <v>0</v>
+      </c>
+      <c r="BA187" s="5">
+        <v>0</v>
+      </c>
+      <c r="BB187" s="5">
+        <v>0</v>
+      </c>
+      <c r="BC187" s="5">
+        <v>0</v>
+      </c>
+      <c r="BD187" s="5">
+        <v>0</v>
+      </c>
+      <c r="BE187" s="5"/>
+      <c r="BF187" s="5"/>
+      <c r="BG187" s="5">
+        <v>14</v>
+      </c>
+      <c r="BH187" s="8">
+        <v>45787</v>
+      </c>
+      <c r="BI187" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ187" s="5">
+        <v>30.6</v>
+      </c>
+      <c r="BK187" s="5"/>
+      <c r="BL187" s="5"/>
+      <c r="BM187" s="5"/>
+      <c r="BN187" s="5"/>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BL131">
     <sortCondition descending="1" ref="BG1:BG131"/>
@@ -31847,12 +37308,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32012,17 +37472,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604F775B-7ABB-4039-9CBF-C25213A2F3BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD3ABE0-3D1E-4855-833D-0F941816683D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7c35617-924a-4a13-8582-9856c8b54434"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32046,17 +37515,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD3ABE0-3D1E-4855-833D-0F941816683D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604F775B-7ABB-4039-9CBF-C25213A2F3BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e7c35617-924a-4a13-8582-9856c8b54434"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Wollongong Wolves Statistics (Python Version).xlsx
+++ b/Wollongong Wolves Statistics (Python Version).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\PycharmProjects\PlayerDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B0E126-D0CC-4FC0-BC40-6DF3E90641D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59A7AC-5013-47E8-BD1B-3304AE108E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -750,9 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BK168" sqref="BK168"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AK23" sqref="AK23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1170,11 +1170,11 @@
         <v>0</v>
       </c>
       <c r="BC2" s="1">
-        <f>AV2/BJ2*30</f>
+        <f t="shared" ref="BC2:BC33" si="0">AV2/BJ2*30</f>
         <v>0.80645161290322598</v>
       </c>
       <c r="BD2" s="1">
-        <f>AW2/BJ2*30</f>
+        <f t="shared" ref="BD2:BD33" si="1">AW2/BJ2*30</f>
         <v>0</v>
       </c>
       <c r="BE2">
@@ -1205,7 +1205,7 @@
         <v>6.5</v>
       </c>
       <c r="BN2" s="1">
-        <f>IF(BM2=0, "", BM2-6.5)</f>
+        <f t="shared" ref="BN2:BN33" si="2">IF(BM2=0, "", BM2-6.5)</f>
         <v>0</v>
       </c>
     </row>
@@ -1373,11 +1373,11 @@
         <v>0</v>
       </c>
       <c r="BC3" s="1">
-        <f>AV3/BJ3*30</f>
+        <f t="shared" si="0"/>
         <v>1.612903225806452</v>
       </c>
       <c r="BD3" s="1">
-        <f>AW3/BJ3*30</f>
+        <f t="shared" si="1"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BE3">
@@ -1408,7 +1408,7 @@
         <v>6.1</v>
       </c>
       <c r="BN3" s="1">
-        <f>IF(BM3=0, "", BM3-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-0.40000000000000036</v>
       </c>
     </row>
@@ -1576,11 +1576,11 @@
         <v>1</v>
       </c>
       <c r="BC4" s="1">
-        <f>AV4/BJ4*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <f>AW4/BJ4*30</f>
+        <f t="shared" si="1"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BE4">
@@ -1611,7 +1611,7 @@
         <v>6.2</v>
       </c>
       <c r="BN4" s="1">
-        <f>IF(BM4=0, "", BM4-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -1777,11 +1777,11 @@
         <v>0</v>
       </c>
       <c r="BC5" s="1">
-        <f>AV5/BJ5*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <f>AW5/BJ5*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE5">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="BM5" s="1"/>
       <c r="BN5" s="1" t="str">
-        <f>IF(BM5=0, "", BM5-6.5)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1978,11 +1978,11 @@
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <f>AV6/BJ6*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <f>AW6/BJ6*30</f>
+        <f t="shared" si="1"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BE6">
@@ -2013,7 +2013,7 @@
         <v>6.7</v>
       </c>
       <c r="BN6" s="1">
-        <f>IF(BM6=0, "", BM6-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -2181,11 +2181,11 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <f>AV7/BJ7*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <f>AW7/BJ7*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE7">
@@ -2216,7 +2216,7 @@
         <v>6.3</v>
       </c>
       <c r="BN7" s="1">
-        <f>IF(BM7=0, "", BM7-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -2384,11 +2384,11 @@
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <f>AV8/BJ8*30</f>
+        <f t="shared" si="0"/>
         <v>2.4193548387096779</v>
       </c>
       <c r="BD8" s="1">
-        <f>AW8/BJ8*30</f>
+        <f t="shared" si="1"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BE8">
@@ -2419,7 +2419,7 @@
         <v>7.3</v>
       </c>
       <c r="BN8" s="1">
-        <f>IF(BM8=0, "", BM8-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -2587,11 +2587,11 @@
         <v>0</v>
       </c>
       <c r="BC9" s="1">
-        <f>AV9/BJ9*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <f>AW9/BJ9*30</f>
+        <f t="shared" si="1"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BE9">
@@ -2622,7 +2622,7 @@
         <v>6.3</v>
       </c>
       <c r="BN9" s="1">
-        <f>IF(BM9=0, "", BM9-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -2790,11 +2790,11 @@
         <v>0</v>
       </c>
       <c r="BC10" s="1">
-        <f>AV10/BJ10*30</f>
+        <f t="shared" si="0"/>
         <v>1.612903225806452</v>
       </c>
       <c r="BD10" s="1">
-        <f>AW10/BJ10*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE10">
@@ -2825,7 +2825,7 @@
         <v>6.5</v>
       </c>
       <c r="BN10" s="1">
-        <f>IF(BM10=0, "", BM10-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2993,11 +2993,11 @@
         <v>0</v>
       </c>
       <c r="BC11" s="1">
-        <f>AV11/BJ11*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <f>AW11/BJ11*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE11">
@@ -3028,7 +3028,7 @@
         <v>6.8</v>
       </c>
       <c r="BN11" s="1">
-        <f>IF(BM11=0, "", BM11-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -3196,11 +3196,11 @@
         <v>0</v>
       </c>
       <c r="BC12" s="1">
-        <f>AV12/BJ12*30</f>
+        <f t="shared" si="0"/>
         <v>3.2258064516129039</v>
       </c>
       <c r="BD12" s="1">
-        <f>AW12/BJ12*30</f>
+        <f t="shared" si="1"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BE12">
@@ -3231,7 +3231,7 @@
         <v>6</v>
       </c>
       <c r="BN12" s="1">
-        <f>IF(BM12=0, "", BM12-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -3399,11 +3399,11 @@
         <v>0</v>
       </c>
       <c r="BC13" s="1">
-        <f>AV13/BJ13*30</f>
+        <f t="shared" si="0"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BD13" s="1">
-        <f>AW13/BJ13*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE13">
@@ -3428,7 +3428,7 @@
         <v>7</v>
       </c>
       <c r="BN13" s="1">
-        <f>IF(BM13=0, "", BM13-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -3596,11 +3596,11 @@
         <v>0</v>
       </c>
       <c r="BC14" s="1">
-        <f>AV14/BJ14*30</f>
+        <f t="shared" si="0"/>
         <v>2.4193548387096779</v>
       </c>
       <c r="BD14" s="1">
-        <f>AW14/BJ14*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE14">
@@ -3631,7 +3631,7 @@
         <v>6.6</v>
       </c>
       <c r="BN14" s="1">
-        <f>IF(BM14=0, "", BM14-6.5)</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -3799,11 +3799,11 @@
         <v>0</v>
       </c>
       <c r="BC15" s="1">
-        <f>AV15/BJ15*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <f>AW15/BJ15*30</f>
+        <f t="shared" si="1"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BE15">
@@ -3834,7 +3834,7 @@
         <v>6.5</v>
       </c>
       <c r="BN15" s="1">
-        <f>IF(BM15=0, "", BM15-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4002,11 +4002,11 @@
         <v>0</v>
       </c>
       <c r="BC16" s="1">
-        <f>AV16/BJ16*30</f>
+        <f t="shared" si="0"/>
         <v>0.80645161290322598</v>
       </c>
       <c r="BD16" s="1">
-        <f>AW16/BJ16*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE16">
@@ -4037,7 +4037,7 @@
         <v>6.6</v>
       </c>
       <c r="BN16" s="1">
-        <f>IF(BM16=0, "", BM16-6.5)</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -4205,11 +4205,11 @@
         <v>0</v>
       </c>
       <c r="BC17" s="1">
-        <f>AV17/BJ17*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <f>AW17/BJ17*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG17">
@@ -4228,7 +4228,7 @@
         <v>6.6</v>
       </c>
       <c r="BN17" s="1">
-        <f>IF(BM17=0, "", BM17-6.5)</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -4396,11 +4396,11 @@
         <v>0</v>
       </c>
       <c r="BC18" s="1">
-        <f>AV18/BJ18*30</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="BD18" s="1">
-        <f>AW18/BJ18*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG18">
@@ -4419,7 +4419,7 @@
         <v>6.9</v>
       </c>
       <c r="BN18" s="1">
-        <f>IF(BM18=0, "", BM18-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -4587,11 +4587,11 @@
         <v>0</v>
       </c>
       <c r="BC19" s="1">
-        <f>AV19/BJ19*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <f>AW19/BJ19*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG19">
@@ -4610,7 +4610,7 @@
         <v>7</v>
       </c>
       <c r="BN19" s="1">
-        <f>IF(BM19=0, "", BM19-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4778,11 +4778,11 @@
         <v>0</v>
       </c>
       <c r="BC20" s="1">
-        <f>AV20/BJ20*30</f>
+        <f t="shared" si="0"/>
         <v>3.1249999999999996</v>
       </c>
       <c r="BD20" s="1">
-        <f>AW20/BJ20*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG20">
@@ -4801,7 +4801,7 @@
         <v>7.5</v>
       </c>
       <c r="BN20" s="1">
-        <f>IF(BM20=0, "", BM20-6.5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -4969,11 +4969,11 @@
         <v>0</v>
       </c>
       <c r="BC21" s="1">
-        <f>AV21/BJ21*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <f>AW21/BJ21*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG21">
@@ -4992,7 +4992,7 @@
         <v>6.6</v>
       </c>
       <c r="BN21" s="1">
-        <f>IF(BM21=0, "", BM21-6.5)</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -5160,11 +5160,11 @@
         <v>0</v>
       </c>
       <c r="BC22" s="1">
-        <f>AV22/BJ22*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <f>AW22/BJ22*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG22">
@@ -5183,7 +5183,7 @@
         <v>5.9</v>
       </c>
       <c r="BN22" s="1">
-        <f>IF(BM22=0, "", BM22-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-0.59999999999999964</v>
       </c>
     </row>
@@ -5297,7 +5297,7 @@
         <v>3</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL23" s="2">
         <v>0.33</v>
@@ -5351,11 +5351,11 @@
         <v>0</v>
       </c>
       <c r="BC23" s="1">
-        <f>AV23/BJ23*30</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="BD23" s="1">
-        <f>AW23/BJ23*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG23">
@@ -5374,7 +5374,7 @@
         <v>7.2</v>
       </c>
       <c r="BN23" s="1">
-        <f>IF(BM23=0, "", BM23-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -5542,11 +5542,11 @@
         <v>0</v>
       </c>
       <c r="BC24" s="1">
-        <f>AV24/BJ24*30</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666667</v>
       </c>
       <c r="BD24" s="1">
-        <f>AW24/BJ24*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG24">
@@ -5565,7 +5565,7 @@
         <v>6.9</v>
       </c>
       <c r="BN24" s="1">
-        <f>IF(BM24=0, "", BM24-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -5733,11 +5733,11 @@
         <v>0</v>
       </c>
       <c r="BC25" s="1">
-        <f>AV25/BJ25*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <f>AW25/BJ25*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG25">
@@ -5756,7 +5756,7 @@
         <v>6.4</v>
       </c>
       <c r="BN25" s="1">
-        <f>IF(BM25=0, "", BM25-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -5924,11 +5924,11 @@
         <v>0</v>
       </c>
       <c r="BC26" s="1">
-        <f>AV26/BJ26*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <f>AW26/BJ26*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG26">
@@ -5947,7 +5947,7 @@
         <v>6.4</v>
       </c>
       <c r="BN26" s="1">
-        <f>IF(BM26=0, "", BM26-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -6115,11 +6115,11 @@
         <v>0</v>
       </c>
       <c r="BC27" s="1">
-        <f>AV27/BJ27*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD27" s="1">
-        <f>AW27/BJ27*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG27">
@@ -6138,7 +6138,7 @@
         <v>6.5</v>
       </c>
       <c r="BN27" s="1">
-        <f>IF(BM27=0, "", BM27-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6306,11 +6306,11 @@
         <v>0</v>
       </c>
       <c r="BC28" s="1">
-        <f>AV28/BJ28*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD28" s="1">
-        <f>AW28/BJ28*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG28">
@@ -6329,7 +6329,7 @@
         <v>7.1</v>
       </c>
       <c r="BN28" s="1">
-        <f>IF(BM28=0, "", BM28-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -6497,11 +6497,11 @@
         <v>0</v>
       </c>
       <c r="BC29" s="1">
-        <f>AV29/BJ29*30</f>
+        <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
       <c r="BD29" s="1">
-        <f>AW29/BJ29*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG29">
@@ -6520,7 +6520,7 @@
         <v>6.8</v>
       </c>
       <c r="BN29" s="1">
-        <f>IF(BM29=0, "", BM29-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -6688,11 +6688,11 @@
         <v>0</v>
       </c>
       <c r="BC30" s="1">
-        <f>AV30/BJ30*30</f>
+        <f t="shared" si="0"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="BD30" s="1">
-        <f>AW30/BJ30*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BG30">
@@ -6711,7 +6711,7 @@
         <v>7.3</v>
       </c>
       <c r="BN30" s="1">
-        <f>IF(BM30=0, "", BM30-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -6879,11 +6879,11 @@
         <v>0</v>
       </c>
       <c r="BC31" s="1">
-        <f>AV31/BJ31*30</f>
+        <f t="shared" si="0"/>
         <v>0.78125</v>
       </c>
       <c r="BD31" s="1">
-        <f>AW31/BJ31*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE31">
@@ -6914,7 +6914,7 @@
         <v>6.6</v>
       </c>
       <c r="BN31" s="1">
-        <f>IF(BM31=0, "", BM31-6.5)</f>
+        <f t="shared" si="2"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -7082,11 +7082,11 @@
         <v>0</v>
       </c>
       <c r="BC32" s="1">
-        <f>AV32/BJ32*30</f>
+        <f t="shared" si="0"/>
         <v>0.78125</v>
       </c>
       <c r="BD32" s="1">
-        <f>AW32/BJ32*30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="BE32">
@@ -7117,7 +7117,7 @@
         <v>6.4</v>
       </c>
       <c r="BN32" s="1">
-        <f>IF(BM32=0, "", BM32-6.5)</f>
+        <f t="shared" si="2"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -7285,11 +7285,11 @@
         <v>0</v>
       </c>
       <c r="BC33" s="1">
-        <f>AV33/BJ33*30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="BD33" s="1">
-        <f>AW33/BJ33*30</f>
+        <f t="shared" si="1"/>
         <v>0.78125</v>
       </c>
       <c r="BE33">
@@ -7320,7 +7320,7 @@
         <v>6.7</v>
       </c>
       <c r="BN33" s="1">
-        <f>IF(BM33=0, "", BM33-6.5)</f>
+        <f t="shared" si="2"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -7488,11 +7488,11 @@
         <v>0</v>
       </c>
       <c r="BC34" s="1">
-        <f>AV34/BJ34*30</f>
+        <f t="shared" ref="BC34:BC65" si="3">AV34/BJ34*30</f>
         <v>0.78125</v>
       </c>
       <c r="BD34" s="1">
-        <f>AW34/BJ34*30</f>
+        <f t="shared" ref="BD34:BD65" si="4">AW34/BJ34*30</f>
         <v>0.78125</v>
       </c>
       <c r="BE34">
@@ -7523,7 +7523,7 @@
         <v>6.3</v>
       </c>
       <c r="BN34" s="1">
-        <f>IF(BM34=0, "", BM34-6.5)</f>
+        <f t="shared" ref="BN34:BN65" si="5">IF(BM34=0, "", BM34-6.5)</f>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -7691,11 +7691,11 @@
         <v>0</v>
       </c>
       <c r="BC35" s="1">
-        <f>AV35/BJ35*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD35" s="1">
-        <f>AW35/BJ35*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE35">
@@ -7726,7 +7726,7 @@
         <v>5.7</v>
       </c>
       <c r="BN35" s="1">
-        <f>IF(BM35=0, "", BM35-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.79999999999999982</v>
       </c>
     </row>
@@ -7894,11 +7894,11 @@
         <v>0</v>
       </c>
       <c r="BC36" s="1">
-        <f>AV36/BJ36*30</f>
+        <f t="shared" si="3"/>
         <v>3.125</v>
       </c>
       <c r="BD36" s="1">
-        <f>AW36/BJ36*30</f>
+        <f t="shared" si="4"/>
         <v>0.78125</v>
       </c>
       <c r="BE36">
@@ -7929,7 +7929,7 @@
         <v>6.7</v>
       </c>
       <c r="BN36" s="1">
-        <f>IF(BM36=0, "", BM36-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -8097,11 +8097,11 @@
         <v>0</v>
       </c>
       <c r="BC37" s="1">
-        <f>AV37/BJ37*30</f>
+        <f t="shared" si="3"/>
         <v>2.34375</v>
       </c>
       <c r="BD37" s="1">
-        <f>AW37/BJ37*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE37">
@@ -8132,7 +8132,7 @@
         <v>6.4</v>
       </c>
       <c r="BN37" s="1">
-        <f>IF(BM37=0, "", BM37-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -8300,11 +8300,11 @@
         <v>0</v>
       </c>
       <c r="BC38" s="1">
-        <f>AV38/BJ38*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD38" s="1">
-        <f>AW38/BJ38*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE38">
@@ -8335,7 +8335,7 @@
         <v>6.3</v>
       </c>
       <c r="BN38" s="1">
-        <f>IF(BM38=0, "", BM38-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -8503,11 +8503,11 @@
         <v>0</v>
       </c>
       <c r="BC39" s="1">
-        <f>AV39/BJ39*30</f>
+        <f t="shared" si="3"/>
         <v>0.78125</v>
       </c>
       <c r="BD39" s="1">
-        <f>AW39/BJ39*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE39">
@@ -8538,7 +8538,7 @@
         <v>7.5</v>
       </c>
       <c r="BN39" s="1">
-        <f>IF(BM39=0, "", BM39-6.5)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -8706,11 +8706,11 @@
         <v>0</v>
       </c>
       <c r="BC40" s="1">
-        <f>AV40/BJ40*30</f>
+        <f t="shared" si="3"/>
         <v>1.5625</v>
       </c>
       <c r="BD40" s="1">
-        <f>AW40/BJ40*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE40">
@@ -8741,7 +8741,7 @@
         <v>6.5</v>
       </c>
       <c r="BN40" s="1">
-        <f>IF(BM40=0, "", BM40-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8909,11 +8909,11 @@
         <v>0</v>
       </c>
       <c r="BC41" s="1">
-        <f>AV41/BJ41*30</f>
+        <f t="shared" si="3"/>
         <v>0.78125</v>
       </c>
       <c r="BD41" s="1">
-        <f>AW41/BJ41*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE41">
@@ -8938,7 +8938,7 @@
         <v>8.4</v>
       </c>
       <c r="BN41" s="1">
-        <f>IF(BM41=0, "", BM41-6.5)</f>
+        <f t="shared" si="5"/>
         <v>1.9000000000000004</v>
       </c>
     </row>
@@ -9106,11 +9106,11 @@
         <v>0</v>
       </c>
       <c r="BC42" s="1">
-        <f>AV42/BJ42*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD42" s="1">
-        <f>AW42/BJ42*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE42">
@@ -9141,7 +9141,7 @@
         <v>6.6</v>
       </c>
       <c r="BN42" s="1">
-        <f>IF(BM42=0, "", BM42-6.5)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -9309,11 +9309,11 @@
         <v>0</v>
       </c>
       <c r="BC43" s="1">
-        <f>AV43/BJ43*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD43" s="1">
-        <f>AW43/BJ43*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE43">
@@ -9344,7 +9344,7 @@
         <v>7.8</v>
       </c>
       <c r="BN43" s="1">
-        <f>IF(BM43=0, "", BM43-6.5)</f>
+        <f t="shared" si="5"/>
         <v>1.2999999999999998</v>
       </c>
     </row>
@@ -9512,11 +9512,11 @@
         <v>0</v>
       </c>
       <c r="BC44" s="1">
-        <f>AV44/BJ44*30</f>
+        <f t="shared" si="3"/>
         <v>0.78125</v>
       </c>
       <c r="BD44" s="1">
-        <f>AW44/BJ44*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BE44">
@@ -9547,7 +9547,7 @@
         <v>7.5</v>
       </c>
       <c r="BN44" s="1">
-        <f>IF(BM44=0, "", BM44-6.5)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9715,11 +9715,11 @@
         <v>0</v>
       </c>
       <c r="BC45" s="1">
-        <f>AV45/BJ45*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD45" s="1">
-        <f>AW45/BJ45*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG45">
@@ -9744,7 +9744,7 @@
         <v>6.1</v>
       </c>
       <c r="BN45" s="1">
-        <f>IF(BM45=0, "", BM45-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.40000000000000036</v>
       </c>
     </row>
@@ -9912,11 +9912,11 @@
         <v>0</v>
       </c>
       <c r="BC46" s="1">
-        <f>AV46/BJ46*30</f>
+        <f t="shared" si="3"/>
         <v>2.6315789473684208</v>
       </c>
       <c r="BD46" s="1">
-        <f>AW46/BJ46*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG46">
@@ -9941,7 +9941,7 @@
         <v>6.2</v>
       </c>
       <c r="BN46" s="1">
-        <f>IF(BM46=0, "", BM46-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -10109,11 +10109,11 @@
         <v>0</v>
       </c>
       <c r="BC47" s="1">
-        <f>AV47/BJ47*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD47" s="1">
-        <f>AW47/BJ47*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG47">
@@ -10138,7 +10138,7 @@
         <v>5.2</v>
       </c>
       <c r="BN47" s="1">
-        <f>IF(BM47=0, "", BM47-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-1.2999999999999998</v>
       </c>
     </row>
@@ -10306,11 +10306,11 @@
         <v>0</v>
       </c>
       <c r="BC48" s="1">
-        <f>AV48/BJ48*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD48" s="1">
-        <f>AW48/BJ48*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG48">
@@ -10335,7 +10335,7 @@
         <v>6.4</v>
       </c>
       <c r="BN48" s="1">
-        <f>IF(BM48=0, "", BM48-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -10503,11 +10503,11 @@
         <v>0</v>
       </c>
       <c r="BC49" s="1">
-        <f>AV49/BJ49*30</f>
+        <f t="shared" si="3"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BD49" s="1">
-        <f>AW49/BJ49*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG49">
@@ -10526,7 +10526,7 @@
         <v>6.5</v>
       </c>
       <c r="BN49" s="1">
-        <f>IF(BM49=0, "", BM49-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10694,11 +10694,11 @@
         <v>0</v>
       </c>
       <c r="BC50" s="1">
-        <f>AV50/BJ50*30</f>
+        <f t="shared" si="3"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BD50" s="1">
-        <f>AW50/BJ50*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG50">
@@ -10723,7 +10723,7 @@
         <v>6.7</v>
       </c>
       <c r="BN50" s="1">
-        <f>IF(BM50=0, "", BM50-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -10891,11 +10891,11 @@
         <v>0</v>
       </c>
       <c r="BC51" s="1">
-        <f>AV51/BJ51*30</f>
+        <f t="shared" si="3"/>
         <v>1.7543859649122806</v>
       </c>
       <c r="BD51" s="1">
-        <f>AW51/BJ51*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG51">
@@ -10920,7 +10920,7 @@
         <v>6.3</v>
       </c>
       <c r="BN51" s="1">
-        <f>IF(BM51=0, "", BM51-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -11088,11 +11088,11 @@
         <v>0</v>
       </c>
       <c r="BC52" s="1">
-        <f>AV52/BJ52*30</f>
+        <f t="shared" si="3"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BD52" s="1">
-        <f>AW52/BJ52*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG52">
@@ -11117,7 +11117,7 @@
         <v>6.9</v>
       </c>
       <c r="BN52" s="1">
-        <f>IF(BM52=0, "", BM52-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -11285,11 +11285,11 @@
         <v>0</v>
       </c>
       <c r="BC53" s="1">
-        <f>AV53/BJ53*30</f>
+        <f t="shared" si="3"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BD53" s="1">
-        <f>AW53/BJ53*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG53">
@@ -11308,7 +11308,7 @@
         <v>6.4</v>
       </c>
       <c r="BN53" s="1">
-        <f>IF(BM53=0, "", BM53-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -11476,11 +11476,11 @@
         <v>0</v>
       </c>
       <c r="BC54" s="1">
-        <f>AV54/BJ54*30</f>
+        <f t="shared" si="3"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BD54" s="1">
-        <f>AW54/BJ54*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG54">
@@ -11505,7 +11505,7 @@
         <v>5.8</v>
       </c>
       <c r="BN54" s="1">
-        <f>IF(BM54=0, "", BM54-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.70000000000000018</v>
       </c>
     </row>
@@ -11673,11 +11673,11 @@
         <v>0</v>
       </c>
       <c r="BC55" s="1">
-        <f>AV55/BJ55*30</f>
+        <f t="shared" si="3"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BD55" s="1">
-        <f>AW55/BJ55*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG55">
@@ -11696,7 +11696,7 @@
         <v>6.6</v>
       </c>
       <c r="BN55" s="1">
-        <f>IF(BM55=0, "", BM55-6.5)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -11864,11 +11864,11 @@
         <v>0</v>
       </c>
       <c r="BC56" s="1">
-        <f>AV56/BJ56*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD56" s="1">
-        <f>AW56/BJ56*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG56">
@@ -11893,7 +11893,7 @@
         <v>5.9</v>
       </c>
       <c r="BN56" s="1">
-        <f>IF(BM56=0, "", BM56-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.59999999999999964</v>
       </c>
     </row>
@@ -12061,11 +12061,11 @@
         <v>0</v>
       </c>
       <c r="BC57" s="1">
-        <f>AV57/BJ57*30</f>
+        <f t="shared" si="3"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BD57" s="1">
-        <f>AW57/BJ57*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG57">
@@ -12090,7 +12090,7 @@
         <v>6.6</v>
       </c>
       <c r="BN57" s="1">
-        <f>IF(BM57=0, "", BM57-6.5)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -12258,11 +12258,11 @@
         <v>0</v>
       </c>
       <c r="BC58" s="1">
-        <f>AV58/BJ58*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD58" s="1">
-        <f>AW58/BJ58*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG58">
@@ -12287,7 +12287,7 @@
         <v>6.1</v>
       </c>
       <c r="BN58" s="1">
-        <f>IF(BM58=0, "", BM58-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.40000000000000036</v>
       </c>
     </row>
@@ -12455,11 +12455,11 @@
         <v>0</v>
       </c>
       <c r="BC59" s="1">
-        <f>AV59/BJ59*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD59" s="1">
-        <f>AW59/BJ59*30</f>
+        <f t="shared" si="4"/>
         <v>0.8771929824561403</v>
       </c>
       <c r="BG59">
@@ -12484,7 +12484,7 @@
         <v>5.9</v>
       </c>
       <c r="BN59" s="1">
-        <f>IF(BM59=0, "", BM59-6.5)</f>
+        <f t="shared" si="5"/>
         <v>-0.59999999999999964</v>
       </c>
     </row>
@@ -12652,11 +12652,11 @@
         <v>0</v>
       </c>
       <c r="BC60" s="1">
-        <f>AV60/BJ60*30</f>
+        <f t="shared" si="3"/>
         <v>0.98039215686274517</v>
       </c>
       <c r="BD60" s="1">
-        <f>AW60/BJ60*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG60">
@@ -12681,7 +12681,7 @@
         <v>7.9</v>
       </c>
       <c r="BN60" s="1">
-        <f>IF(BM60=0, "", BM60-6.5)</f>
+        <f t="shared" si="5"/>
         <v>1.4000000000000004</v>
       </c>
     </row>
@@ -12849,11 +12849,11 @@
         <v>0</v>
       </c>
       <c r="BC61" s="1">
-        <f>AV61/BJ61*30</f>
+        <f t="shared" si="3"/>
         <v>5.8823529411764701</v>
       </c>
       <c r="BD61" s="1">
-        <f>AW61/BJ61*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG61">
@@ -12878,7 +12878,7 @@
         <v>7.8</v>
       </c>
       <c r="BN61" s="1">
-        <f>IF(BM61=0, "", BM61-6.5)</f>
+        <f t="shared" si="5"/>
         <v>1.2999999999999998</v>
       </c>
     </row>
@@ -13046,11 +13046,11 @@
         <v>0</v>
       </c>
       <c r="BC62" s="1">
-        <f>AV62/BJ62*30</f>
+        <f t="shared" si="3"/>
         <v>0.98039215686274517</v>
       </c>
       <c r="BD62" s="1">
-        <f>AW62/BJ62*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG62">
@@ -13075,7 +13075,7 @@
         <v>6.8</v>
       </c>
       <c r="BN62" s="1">
-        <f>IF(BM62=0, "", BM62-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -13243,11 +13243,11 @@
         <v>0</v>
       </c>
       <c r="BC63" s="1">
-        <f>AV63/BJ63*30</f>
+        <f t="shared" si="3"/>
         <v>1.9607843137254903</v>
       </c>
       <c r="BD63" s="1">
-        <f>AW63/BJ63*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG63">
@@ -13272,7 +13272,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="BN63" s="1">
-        <f>IF(BM63=0, "", BM63-6.5)</f>
+        <f t="shared" si="5"/>
         <v>1.6999999999999993</v>
       </c>
     </row>
@@ -13440,11 +13440,11 @@
         <v>0</v>
       </c>
       <c r="BC64" s="1">
-        <f>AV64/BJ64*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD64" s="1">
-        <f>AW64/BJ64*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG64">
@@ -13469,7 +13469,7 @@
         <v>6.7</v>
       </c>
       <c r="BN64" s="1">
-        <f>IF(BM64=0, "", BM64-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -13637,11 +13637,11 @@
         <v>0</v>
       </c>
       <c r="BC65" s="1">
-        <f>AV65/BJ65*30</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="BD65" s="1">
-        <f>AW65/BJ65*30</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="BG65">
@@ -13666,7 +13666,7 @@
         <v>7.3</v>
       </c>
       <c r="BN65" s="1">
-        <f>IF(BM65=0, "", BM65-6.5)</f>
+        <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -13834,11 +13834,11 @@
         <v>0</v>
       </c>
       <c r="BC66" s="1">
-        <f>AV66/BJ66*30</f>
+        <f t="shared" ref="BC66:BC97" si="6">AV66/BJ66*30</f>
         <v>0.98039215686274517</v>
       </c>
       <c r="BD66" s="1">
-        <f>AW66/BJ66*30</f>
+        <f t="shared" ref="BD66:BD97" si="7">AW66/BJ66*30</f>
         <v>0</v>
       </c>
       <c r="BG66">
@@ -13863,7 +13863,7 @@
         <v>6.9</v>
       </c>
       <c r="BN66" s="1">
-        <f>IF(BM66=0, "", BM66-6.5)</f>
+        <f t="shared" ref="BN66:BN97" si="8">IF(BM66=0, "", BM66-6.5)</f>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -14031,11 +14031,11 @@
         <v>0</v>
       </c>
       <c r="BC67" s="1">
-        <f>AV67/BJ67*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD67" s="1">
-        <f>AW67/BJ67*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG67">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="BM67" s="1"/>
       <c r="BN67" s="1" t="str">
-        <f>IF(BM67=0, "", BM67-6.5)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -14226,11 +14226,11 @@
         <v>0</v>
       </c>
       <c r="BC68" s="1">
-        <f>AV68/BJ68*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD68" s="1">
-        <f>AW68/BJ68*30</f>
+        <f t="shared" si="7"/>
         <v>0.98039215686274517</v>
       </c>
       <c r="BG68">
@@ -14255,7 +14255,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="BN68" s="1">
-        <f>IF(BM68=0, "", BM68-6.5)</f>
+        <f t="shared" si="8"/>
         <v>2.8000000000000007</v>
       </c>
     </row>
@@ -14423,11 +14423,11 @@
         <v>0</v>
       </c>
       <c r="BC69" s="1">
-        <f>AV69/BJ69*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD69" s="1">
-        <f>AW69/BJ69*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG69">
@@ -14452,7 +14452,7 @@
         <v>6.2</v>
       </c>
       <c r="BN69" s="1">
-        <f>IF(BM69=0, "", BM69-6.5)</f>
+        <f t="shared" si="8"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -14620,11 +14620,11 @@
         <v>0</v>
       </c>
       <c r="BC70" s="1">
-        <f>AV70/BJ70*30</f>
+        <f t="shared" si="6"/>
         <v>1.9607843137254903</v>
       </c>
       <c r="BD70" s="1">
-        <f>AW70/BJ70*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG70">
@@ -14649,7 +14649,7 @@
         <v>6.6</v>
       </c>
       <c r="BN70" s="1">
-        <f>IF(BM70=0, "", BM70-6.5)</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -14817,11 +14817,11 @@
         <v>0</v>
       </c>
       <c r="BC71" s="1">
-        <f>AV71/BJ71*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD71" s="1">
-        <f>AW71/BJ71*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG71">
@@ -14840,7 +14840,7 @@
         <v>7.3</v>
       </c>
       <c r="BN71" s="1">
-        <f>IF(BM71=0, "", BM71-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -15008,11 +15008,11 @@
         <v>0</v>
       </c>
       <c r="BC72" s="1">
-        <f>AV72/BJ72*30</f>
+        <f t="shared" si="6"/>
         <v>0.98039215686274517</v>
       </c>
       <c r="BD72" s="1">
-        <f>AW72/BJ72*30</f>
+        <f t="shared" si="7"/>
         <v>0.98039215686274517</v>
       </c>
       <c r="BG72">
@@ -15037,7 +15037,7 @@
         <v>7.2</v>
       </c>
       <c r="BN72" s="1">
-        <f>IF(BM72=0, "", BM72-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -15205,11 +15205,11 @@
         <v>0</v>
       </c>
       <c r="BC73" s="1">
-        <f>AV73/BJ73*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD73" s="1">
-        <f>AW73/BJ73*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG73">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="BM73" s="1"/>
       <c r="BN73" s="1" t="str">
-        <f>IF(BM73=0, "", BM73-6.5)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15400,11 +15400,11 @@
         <v>0</v>
       </c>
       <c r="BC74" s="1">
-        <f>AV74/BJ74*30</f>
+        <f t="shared" si="6"/>
         <v>0.98039215686274517</v>
       </c>
       <c r="BD74" s="1">
-        <f>AW74/BJ74*30</f>
+        <f t="shared" si="7"/>
         <v>0.98039215686274517</v>
       </c>
       <c r="BG74">
@@ -15429,7 +15429,7 @@
         <v>6.6</v>
       </c>
       <c r="BN74" s="1">
-        <f>IF(BM74=0, "", BM74-6.5)</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -15597,11 +15597,11 @@
         <v>0</v>
       </c>
       <c r="BC75" s="1">
-        <f>AV75/BJ75*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD75" s="1">
-        <f>AW75/BJ75*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG75">
@@ -15624,7 +15624,7 @@
       </c>
       <c r="BM75" s="1"/>
       <c r="BN75" s="1" t="str">
-        <f>IF(BM75=0, "", BM75-6.5)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -15792,11 +15792,11 @@
         <v>0</v>
       </c>
       <c r="BC76" s="1">
-        <f>AV76/BJ76*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD76" s="1">
-        <f>AW76/BJ76*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG76">
@@ -15821,7 +15821,7 @@
         <v>6.9</v>
       </c>
       <c r="BN76" s="1">
-        <f>IF(BM76=0, "", BM76-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -15989,11 +15989,11 @@
         <v>0</v>
       </c>
       <c r="BC77" s="1">
-        <f>AV77/BJ77*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD77" s="1">
-        <f>AW77/BJ77*30</f>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="BG77">
@@ -16018,7 +16018,7 @@
         <v>7</v>
       </c>
       <c r="BN77" s="1">
-        <f>IF(BM77=0, "", BM77-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -16182,11 +16182,11 @@
         <v>0</v>
       </c>
       <c r="BC78" s="1">
-        <f>AV78/BJ78*30</f>
+        <f t="shared" si="6"/>
         <v>2.5</v>
       </c>
       <c r="BD78" s="1">
-        <f>AW78/BJ78*30</f>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="BG78">
@@ -16211,7 +16211,7 @@
         <v>7.6</v>
       </c>
       <c r="BN78" s="1">
-        <f>IF(BM78=0, "", BM78-6.5)</f>
+        <f t="shared" si="8"/>
         <v>1.0999999999999996</v>
       </c>
     </row>
@@ -16379,11 +16379,11 @@
         <v>0</v>
       </c>
       <c r="BC79" s="1">
-        <f>AV79/BJ79*30</f>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="BD79" s="1">
-        <f>AW79/BJ79*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG79">
@@ -16408,7 +16408,7 @@
         <v>6.7</v>
       </c>
       <c r="BN79" s="1">
-        <f>IF(BM79=0, "", BM79-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -16576,11 +16576,11 @@
         <v>0</v>
       </c>
       <c r="BC80" s="1">
-        <f>AV80/BJ80*30</f>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="BD80" s="1">
-        <f>AW80/BJ80*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG80">
@@ -16605,7 +16605,7 @@
         <v>6.2</v>
       </c>
       <c r="BN80" s="1">
-        <f>IF(BM80=0, "", BM80-6.5)</f>
+        <f t="shared" si="8"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -16769,11 +16769,11 @@
         <v>0</v>
       </c>
       <c r="BC81" s="1">
-        <f>AV81/BJ81*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD81" s="1">
-        <f>AW81/BJ81*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG81">
@@ -16798,7 +16798,7 @@
         <v>7.1</v>
       </c>
       <c r="BN81" s="1">
-        <f>IF(BM81=0, "", BM81-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -16966,11 +16966,11 @@
         <v>0</v>
       </c>
       <c r="BC82" s="1">
-        <f>AV82/BJ82*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD82" s="1">
-        <f>AW82/BJ82*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG82">
@@ -16995,7 +16995,7 @@
         <v>6.4</v>
       </c>
       <c r="BN82" s="1">
-        <f>IF(BM82=0, "", BM82-6.5)</f>
+        <f t="shared" si="8"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -17159,11 +17159,11 @@
         <v>0</v>
       </c>
       <c r="BC83" s="1">
-        <f>AV83/BJ83*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD83" s="1">
-        <f>AW83/BJ83*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG83">
@@ -17188,7 +17188,7 @@
         <v>7.3</v>
       </c>
       <c r="BN83" s="1">
-        <f>IF(BM83=0, "", BM83-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -17352,11 +17352,11 @@
         <v>0</v>
       </c>
       <c r="BC84" s="1">
-        <f>AV84/BJ84*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD84" s="1">
-        <f>AW84/BJ84*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG84">
@@ -17375,7 +17375,7 @@
         <v>7.4</v>
       </c>
       <c r="BN84" s="1">
-        <f>IF(BM84=0, "", BM84-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -17539,11 +17539,11 @@
         <v>0</v>
       </c>
       <c r="BC85" s="1">
-        <f>AV85/BJ85*30</f>
+        <f t="shared" si="6"/>
         <v>3.75</v>
       </c>
       <c r="BD85" s="1">
-        <f>AW85/BJ85*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG85">
@@ -17568,7 +17568,7 @@
         <v>6.4</v>
       </c>
       <c r="BN85" s="1">
-        <f>IF(BM85=0, "", BM85-6.5)</f>
+        <f t="shared" si="8"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -17732,11 +17732,11 @@
         <v>0</v>
       </c>
       <c r="BC86" s="1">
-        <f>AV86/BJ86*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD86" s="1">
-        <f>AW86/BJ86*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG86">
@@ -17761,7 +17761,7 @@
         <v>7.4</v>
       </c>
       <c r="BN86" s="1">
-        <f>IF(BM86=0, "", BM86-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -17925,11 +17925,11 @@
         <v>0</v>
       </c>
       <c r="BC87" s="1">
-        <f>AV87/BJ87*30</f>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="BD87" s="1">
-        <f>AW87/BJ87*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG87">
@@ -17954,7 +17954,7 @@
         <v>7.1</v>
       </c>
       <c r="BN87" s="1">
-        <f>IF(BM87=0, "", BM87-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -18122,11 +18122,11 @@
         <v>0</v>
       </c>
       <c r="BC88" s="1">
-        <f>AV88/BJ88*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD88" s="1">
-        <f>AW88/BJ88*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG88">
@@ -18151,7 +18151,7 @@
         <v>6.6</v>
       </c>
       <c r="BN88" s="1">
-        <f>IF(BM88=0, "", BM88-6.5)</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -18319,11 +18319,11 @@
         <v>0</v>
       </c>
       <c r="BC89" s="1">
-        <f>AV89/BJ89*30</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BD89" s="1">
-        <f>AW89/BJ89*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG89">
@@ -18348,7 +18348,7 @@
         <v>7.7</v>
       </c>
       <c r="BN89" s="1">
-        <f>IF(BM89=0, "", BM89-6.5)</f>
+        <f t="shared" si="8"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -18516,11 +18516,11 @@
         <v>0</v>
       </c>
       <c r="BC90" s="1">
-        <f>AV90/BJ90*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD90" s="1">
-        <f>AW90/BJ90*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG90">
@@ -18545,7 +18545,7 @@
         <v>6.7</v>
       </c>
       <c r="BN90" s="1">
-        <f>IF(BM90=0, "", BM90-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -18713,11 +18713,11 @@
         <v>0</v>
       </c>
       <c r="BC91" s="1">
-        <f>AV91/BJ91*30</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BD91" s="1">
-        <f>AW91/BJ91*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG91">
@@ -18742,7 +18742,7 @@
         <v>6.6</v>
       </c>
       <c r="BN91" s="1">
-        <f>IF(BM91=0, "", BM91-6.5)</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -18910,11 +18910,11 @@
         <v>0</v>
       </c>
       <c r="BC92" s="1">
-        <f>AV92/BJ92*30</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD92" s="1">
-        <f>AW92/BJ92*30</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="BG92">
@@ -18939,7 +18939,7 @@
         <v>6.6</v>
       </c>
       <c r="BN92" s="1">
-        <f>IF(BM92=0, "", BM92-6.5)</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -19107,11 +19107,11 @@
         <v>0</v>
       </c>
       <c r="BC93" s="1">
-        <f>AV93/BJ93*30</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="BD93" s="1">
-        <f>AW93/BJ93*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG93">
@@ -19136,7 +19136,7 @@
         <v>6.7</v>
       </c>
       <c r="BN93" s="1">
-        <f>IF(BM93=0, "", BM93-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -19304,11 +19304,11 @@
         <v>0</v>
       </c>
       <c r="BC94" s="1">
-        <f>AV94/BJ94*30</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="BD94" s="1">
-        <f>AW94/BJ94*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG94">
@@ -19333,7 +19333,7 @@
         <v>6.6</v>
       </c>
       <c r="BN94" s="1">
-        <f>IF(BM94=0, "", BM94-6.5)</f>
+        <f t="shared" si="8"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -19501,11 +19501,11 @@
         <v>0</v>
       </c>
       <c r="BC95" s="1">
-        <f>AV95/BJ95*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD95" s="1">
-        <f>AW95/BJ95*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG95">
@@ -19530,7 +19530,7 @@
         <v>6.4</v>
       </c>
       <c r="BN95" s="1">
-        <f>IF(BM95=0, "", BM95-6.5)</f>
+        <f t="shared" si="8"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -19698,11 +19698,11 @@
         <v>0</v>
       </c>
       <c r="BC96" s="1">
-        <f>AV96/BJ96*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD96" s="1">
-        <f>AW96/BJ96*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG96">
@@ -19727,7 +19727,7 @@
         <v>6.8</v>
       </c>
       <c r="BN96" s="1">
-        <f>IF(BM96=0, "", BM96-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -19895,11 +19895,11 @@
         <v>0</v>
       </c>
       <c r="BC97" s="1">
-        <f>AV97/BJ97*30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BD97" s="1">
-        <f>AW97/BJ97*30</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="BG97">
@@ -19918,7 +19918,7 @@
         <v>6.7</v>
       </c>
       <c r="BN97" s="1">
-        <f>IF(BM97=0, "", BM97-6.5)</f>
+        <f t="shared" si="8"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -20086,11 +20086,11 @@
         <v>0</v>
       </c>
       <c r="BC98" s="1">
-        <f>AV98/BJ98*30</f>
+        <f t="shared" ref="BC98:BC129" si="9">AV98/BJ98*30</f>
         <v>0</v>
       </c>
       <c r="BD98" s="1">
-        <f>AW98/BJ98*30</f>
+        <f t="shared" ref="BD98:BD129" si="10">AW98/BJ98*30</f>
         <v>0</v>
       </c>
       <c r="BG98">
@@ -20109,7 +20109,7 @@
         <v>7.4</v>
       </c>
       <c r="BN98" s="1">
-        <f>IF(BM98=0, "", BM98-6.5)</f>
+        <f t="shared" ref="BN98:BN129" si="11">IF(BM98=0, "", BM98-6.5)</f>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -20277,11 +20277,11 @@
         <v>0</v>
       </c>
       <c r="BC99" s="1">
-        <f>AV99/BJ99*30</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BD99" s="1">
-        <f>AW99/BJ99*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG99">
@@ -20306,7 +20306,7 @@
         <v>7.2</v>
       </c>
       <c r="BN99" s="1">
-        <f>IF(BM99=0, "", BM99-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -20474,11 +20474,11 @@
         <v>0</v>
       </c>
       <c r="BC100" s="1">
-        <f>AV100/BJ100*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD100" s="1">
-        <f>AW100/BJ100*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG100">
@@ -20503,7 +20503,7 @@
         <v>6.2</v>
       </c>
       <c r="BN100" s="1">
-        <f>IF(BM100=0, "", BM100-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -20671,11 +20671,11 @@
         <v>0</v>
       </c>
       <c r="BC101" s="1">
-        <f>AV101/BJ101*30</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="BD101" s="1">
-        <f>AW101/BJ101*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG101">
@@ -20700,7 +20700,7 @@
         <v>6.6</v>
       </c>
       <c r="BN101" s="1">
-        <f>IF(BM101=0, "", BM101-6.5)</f>
+        <f t="shared" si="11"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -20868,11 +20868,11 @@
         <v>0</v>
       </c>
       <c r="BC102" s="1">
-        <f>AV102/BJ102*30</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="BD102" s="1">
-        <f>AW102/BJ102*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE102">
@@ -20903,7 +20903,7 @@
         <v>7.7</v>
       </c>
       <c r="BN102" s="1">
-        <f>IF(BM102=0, "", BM102-6.5)</f>
+        <f t="shared" si="11"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -21071,11 +21071,11 @@
         <v>0</v>
       </c>
       <c r="BC103" s="1">
-        <f>AV103/BJ103*30</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="BD103" s="1">
-        <f>AW103/BJ103*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE103">
@@ -21106,7 +21106,7 @@
         <v>6.7</v>
       </c>
       <c r="BN103" s="1">
-        <f>IF(BM103=0, "", BM103-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -21274,11 +21274,11 @@
         <v>0</v>
       </c>
       <c r="BC104" s="1">
-        <f>AV104/BJ104*30</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="BD104" s="1">
-        <f>AW104/BJ104*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE104">
@@ -21309,7 +21309,7 @@
         <v>6.8</v>
       </c>
       <c r="BN104" s="1">
-        <f>IF(BM104=0, "", BM104-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -21477,11 +21477,11 @@
         <v>0</v>
       </c>
       <c r="BC105" s="1">
-        <f>AV105/BJ105*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD105" s="1">
-        <f>AW105/BJ105*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE105">
@@ -21512,7 +21512,7 @@
         <v>6.4</v>
       </c>
       <c r="BN105" s="1">
-        <f>IF(BM105=0, "", BM105-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -21680,11 +21680,11 @@
         <v>0</v>
       </c>
       <c r="BC106" s="1">
-        <f>AV106/BJ106*30</f>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="BD106" s="1">
-        <f>AW106/BJ106*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE106">
@@ -21715,7 +21715,7 @@
         <v>6.7</v>
       </c>
       <c r="BN106" s="1">
-        <f>IF(BM106=0, "", BM106-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -21883,11 +21883,11 @@
         <v>0</v>
       </c>
       <c r="BC107" s="1">
-        <f>AV107/BJ107*30</f>
+        <f t="shared" si="9"/>
         <v>4.166666666666667</v>
       </c>
       <c r="BD107" s="1">
-        <f>AW107/BJ107*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE107">
@@ -21918,7 +21918,7 @@
         <v>7.2</v>
       </c>
       <c r="BN107" s="1">
-        <f>IF(BM107=0, "", BM107-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -22086,11 +22086,11 @@
         <v>0</v>
       </c>
       <c r="BC108" s="1">
-        <f>AV108/BJ108*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD108" s="1">
-        <f>AW108/BJ108*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE108">
@@ -22121,7 +22121,7 @@
         <v>6.7</v>
       </c>
       <c r="BN108" s="1">
-        <f>IF(BM108=0, "", BM108-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -22289,11 +22289,11 @@
         <v>0</v>
       </c>
       <c r="BC109" s="1">
-        <f>AV109/BJ109*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD109" s="1">
-        <f>AW109/BJ109*30</f>
+        <f t="shared" si="10"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="BE109">
@@ -22324,7 +22324,7 @@
         <v>7.2</v>
       </c>
       <c r="BN109" s="1">
-        <f>IF(BM109=0, "", BM109-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -22492,11 +22492,11 @@
         <v>0</v>
       </c>
       <c r="BC110" s="1">
-        <f>AV110/BJ110*30</f>
+        <f t="shared" si="9"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="BD110" s="1">
-        <f>AW110/BJ110*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE110">
@@ -22527,7 +22527,7 @@
         <v>6.4</v>
       </c>
       <c r="BN110" s="1">
-        <f>IF(BM110=0, "", BM110-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -22695,11 +22695,11 @@
         <v>0</v>
       </c>
       <c r="BC111" s="1">
-        <f>AV111/BJ111*30</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="BD111" s="1">
-        <f>AW111/BJ111*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE111">
@@ -22724,7 +22724,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="BN111" s="1">
-        <f>IF(BM111=0, "", BM111-6.5)</f>
+        <f t="shared" si="11"/>
         <v>1.6999999999999993</v>
       </c>
     </row>
@@ -22892,11 +22892,11 @@
         <v>0</v>
       </c>
       <c r="BC112" s="1">
-        <f>AV112/BJ112*30</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="BD112" s="1">
-        <f>AW112/BJ112*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE112">
@@ -22927,7 +22927,7 @@
         <v>7.4</v>
       </c>
       <c r="BN112" s="1">
-        <f>IF(BM112=0, "", BM112-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -23095,11 +23095,11 @@
         <v>0</v>
       </c>
       <c r="BC113" s="1">
-        <f>AV113/BJ113*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD113" s="1">
-        <f>AW113/BJ113*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE113">
@@ -23130,7 +23130,7 @@
         <v>6.4</v>
       </c>
       <c r="BN113" s="1">
-        <f>IF(BM113=0, "", BM113-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -23298,11 +23298,11 @@
         <v>0</v>
       </c>
       <c r="BC114" s="1">
-        <f>AV114/BJ114*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD114" s="1">
-        <f>AW114/BJ114*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE114">
@@ -23333,7 +23333,7 @@
         <v>6.5</v>
       </c>
       <c r="BN114" s="1">
-        <f>IF(BM114=0, "", BM114-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -23501,11 +23501,11 @@
         <v>0</v>
       </c>
       <c r="BC115" s="1">
-        <f>AV115/BJ115*30</f>
+        <f t="shared" si="9"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="BD115" s="1">
-        <f>AW115/BJ115*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BE115">
@@ -23536,7 +23536,7 @@
         <v>7.3</v>
       </c>
       <c r="BN115" s="1">
-        <f>IF(BM115=0, "", BM115-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -23704,11 +23704,11 @@
         <v>0</v>
       </c>
       <c r="BC116" s="1">
-        <f>AV116/BJ116*30</f>
+        <f t="shared" si="9"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="BD116" s="1">
-        <f>AW116/BJ116*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG116">
@@ -23733,7 +23733,7 @@
         <v>6.9</v>
       </c>
       <c r="BN116" s="1">
-        <f>IF(BM116=0, "", BM116-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -23901,11 +23901,11 @@
         <v>0</v>
       </c>
       <c r="BC117" s="1">
-        <f>AV117/BJ117*30</f>
+        <f t="shared" si="9"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="BD117" s="1">
-        <f>AW117/BJ117*30</f>
+        <f t="shared" si="10"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="BG117">
@@ -23930,7 +23930,7 @@
         <v>6.4</v>
       </c>
       <c r="BN117" s="1">
-        <f>IF(BM117=0, "", BM117-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -24098,11 +24098,11 @@
         <v>0</v>
       </c>
       <c r="BC118" s="1">
-        <f>AV118/BJ118*30</f>
+        <f t="shared" si="9"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="BD118" s="1">
-        <f>AW118/BJ118*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG118">
@@ -24127,7 +24127,7 @@
         <v>6.3</v>
       </c>
       <c r="BN118" s="1">
-        <f>IF(BM118=0, "", BM118-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -24295,11 +24295,11 @@
         <v>0</v>
       </c>
       <c r="BC119" s="1">
-        <f>AV119/BJ119*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD119" s="1">
-        <f>AW119/BJ119*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG119">
@@ -24324,7 +24324,7 @@
         <v>6.4</v>
       </c>
       <c r="BN119" s="1">
-        <f>IF(BM119=0, "", BM119-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -24492,11 +24492,11 @@
         <v>0</v>
       </c>
       <c r="BC120" s="1">
-        <f>AV120/BJ120*30</f>
+        <f t="shared" si="9"/>
         <v>1.8181818181818183</v>
       </c>
       <c r="BD120" s="1">
-        <f>AW120/BJ120*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG120">
@@ -24521,7 +24521,7 @@
         <v>6.5</v>
       </c>
       <c r="BN120" s="1">
-        <f>IF(BM120=0, "", BM120-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -24689,11 +24689,11 @@
         <v>0</v>
       </c>
       <c r="BC121" s="1">
-        <f>AV121/BJ121*30</f>
+        <f t="shared" si="9"/>
         <v>1.8181818181818183</v>
       </c>
       <c r="BD121" s="1">
-        <f>AW121/BJ121*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG121">
@@ -24718,7 +24718,7 @@
         <v>6.7</v>
       </c>
       <c r="BN121" s="1">
-        <f>IF(BM121=0, "", BM121-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -24886,11 +24886,11 @@
         <v>0</v>
       </c>
       <c r="BC122" s="1">
-        <f>AV122/BJ122*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD122" s="1">
-        <f>AW122/BJ122*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG122">
@@ -24915,7 +24915,7 @@
         <v>7.3</v>
       </c>
       <c r="BN122" s="1">
-        <f>IF(BM122=0, "", BM122-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -25083,11 +25083,11 @@
         <v>0</v>
       </c>
       <c r="BC123" s="1">
-        <f>AV123/BJ123*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD123" s="1">
-        <f>AW123/BJ123*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG123">
@@ -25106,7 +25106,7 @@
         <v>6.5</v>
       </c>
       <c r="BN123" s="1">
-        <f>IF(BM123=0, "", BM123-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -25274,11 +25274,11 @@
         <v>0</v>
       </c>
       <c r="BC124" s="1">
-        <f>AV124/BJ124*30</f>
+        <f t="shared" si="9"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="BD124" s="1">
-        <f>AW124/BJ124*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG124">
@@ -25303,7 +25303,7 @@
         <v>6.2</v>
       </c>
       <c r="BN124" s="1">
-        <f>IF(BM124=0, "", BM124-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -25471,11 +25471,11 @@
         <v>0</v>
       </c>
       <c r="BC125" s="1">
-        <f>AV125/BJ125*30</f>
+        <f t="shared" si="9"/>
         <v>1.8181818181818183</v>
       </c>
       <c r="BD125" s="1">
-        <f>AW125/BJ125*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG125">
@@ -25494,7 +25494,7 @@
         <v>6.9</v>
       </c>
       <c r="BN125" s="1">
-        <f>IF(BM125=0, "", BM125-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -25662,11 +25662,11 @@
         <v>0</v>
       </c>
       <c r="BC126" s="1">
-        <f>AV126/BJ126*30</f>
+        <f t="shared" si="9"/>
         <v>1.8181818181818183</v>
       </c>
       <c r="BD126" s="1">
-        <f>AW126/BJ126*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG126">
@@ -25691,7 +25691,7 @@
         <v>6.4</v>
       </c>
       <c r="BN126" s="1">
-        <f>IF(BM126=0, "", BM126-6.5)</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -25859,11 +25859,11 @@
         <v>0</v>
       </c>
       <c r="BC127" s="1">
-        <f>AV127/BJ127*30</f>
+        <f t="shared" si="9"/>
         <v>1.8181818181818183</v>
       </c>
       <c r="BD127" s="1">
-        <f>AW127/BJ127*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG127">
@@ -25888,7 +25888,7 @@
         <v>7.5</v>
       </c>
       <c r="BN127" s="1">
-        <f>IF(BM127=0, "", BM127-6.5)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -26056,11 +26056,11 @@
         <v>0</v>
       </c>
       <c r="BC128" s="1">
-        <f>AV128/BJ128*30</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="BD128" s="1">
-        <f>AW128/BJ128*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG128">
@@ -26079,7 +26079,7 @@
         <v>6.5</v>
       </c>
       <c r="BN128" s="1">
-        <f>IF(BM128=0, "", BM128-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -26247,11 +26247,11 @@
         <v>0</v>
       </c>
       <c r="BC129" s="1">
-        <f>AV129/BJ129*30</f>
+        <f t="shared" si="9"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="BD129" s="1">
-        <f>AW129/BJ129*30</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="BG129">
@@ -26276,7 +26276,7 @@
         <v>6.9</v>
       </c>
       <c r="BN129" s="1">
-        <f>IF(BM129=0, "", BM129-6.5)</f>
+        <f t="shared" si="11"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -26444,11 +26444,11 @@
         <v>0</v>
       </c>
       <c r="BC130" s="1">
-        <f>AV130/BJ130*30</f>
+        <f t="shared" ref="BC130:BC161" si="12">AV130/BJ130*30</f>
         <v>1.5151515151515151</v>
       </c>
       <c r="BD130" s="1">
-        <f>AW130/BJ130*30</f>
+        <f t="shared" ref="BD130:BD161" si="13">AW130/BJ130*30</f>
         <v>0</v>
       </c>
       <c r="BG130">
@@ -26473,7 +26473,7 @@
         <v>8.1</v>
       </c>
       <c r="BN130" s="1">
-        <f>IF(BM130=0, "", BM130-6.5)</f>
+        <f t="shared" ref="BN130:BN161" si="14">IF(BM130=0, "", BM130-6.5)</f>
         <v>1.5999999999999996</v>
       </c>
     </row>
@@ -26641,11 +26641,11 @@
         <v>0</v>
       </c>
       <c r="BC131" s="1">
-        <f>AV131/BJ131*30</f>
+        <f t="shared" si="12"/>
         <v>1.5151515151515151</v>
       </c>
       <c r="BD131" s="1">
-        <f>AW131/BJ131*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG131">
@@ -26670,7 +26670,7 @@
         <v>6.9</v>
       </c>
       <c r="BN131" s="1">
-        <f>IF(BM131=0, "", BM131-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -26838,11 +26838,11 @@
         <v>0</v>
       </c>
       <c r="BC132" s="1">
-        <f>AV132/BJ132*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD132" s="1">
-        <f>AW132/BJ132*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG132">
@@ -26867,7 +26867,7 @@
         <v>7.1</v>
       </c>
       <c r="BN132" s="1">
-        <f>IF(BM132=0, "", BM132-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -27035,11 +27035,11 @@
         <v>0</v>
       </c>
       <c r="BC133" s="1">
-        <f>AV133/BJ133*30</f>
+        <f t="shared" si="12"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="BD133" s="1">
-        <f>AW133/BJ133*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG133">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="BM133" s="1"/>
       <c r="BN133" s="1" t="str">
-        <f>IF(BM133=0, "", BM133-6.5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -27230,11 +27230,11 @@
         <v>0</v>
       </c>
       <c r="BC134" s="1">
-        <f>AV134/BJ134*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD134" s="1">
-        <f>AW134/BJ134*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG134">
@@ -27257,7 +27257,7 @@
       </c>
       <c r="BM134" s="1"/>
       <c r="BN134" s="1" t="str">
-        <f>IF(BM134=0, "", BM134-6.5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -27425,11 +27425,11 @@
         <v>0</v>
       </c>
       <c r="BC135" s="1">
-        <f>AV135/BJ135*30</f>
+        <f t="shared" si="12"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="BD135" s="1">
-        <f>AW135/BJ135*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG135">
@@ -27454,7 +27454,7 @@
         <v>7</v>
       </c>
       <c r="BN135" s="1">
-        <f>IF(BM135=0, "", BM135-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
     </row>
@@ -27622,11 +27622,11 @@
         <v>0</v>
       </c>
       <c r="BC136" s="1">
-        <f>AV136/BJ136*30</f>
+        <f t="shared" si="12"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="BD136" s="1">
-        <f>AW136/BJ136*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG136">
@@ -27651,7 +27651,7 @@
         <v>6.8</v>
       </c>
       <c r="BN136" s="1">
-        <f>IF(BM136=0, "", BM136-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -27819,11 +27819,11 @@
         <v>0</v>
       </c>
       <c r="BC137" s="1">
-        <f>AV137/BJ137*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD137" s="1">
-        <f>AW137/BJ137*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG137">
@@ -27848,7 +27848,7 @@
         <v>6.6</v>
       </c>
       <c r="BN137" s="1">
-        <f>IF(BM137=0, "", BM137-6.5)</f>
+        <f t="shared" si="14"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -28016,11 +28016,11 @@
         <v>0</v>
       </c>
       <c r="BC138" s="1">
-        <f>AV138/BJ138*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD138" s="1">
-        <f>AW138/BJ138*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG138">
@@ -28045,7 +28045,7 @@
         <v>6.4</v>
       </c>
       <c r="BN138" s="1">
-        <f>IF(BM138=0, "", BM138-6.5)</f>
+        <f t="shared" si="14"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -28213,11 +28213,11 @@
         <v>0</v>
       </c>
       <c r="BC139" s="1">
-        <f>AV139/BJ139*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD139" s="1">
-        <f>AW139/BJ139*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG139">
@@ -28242,7 +28242,7 @@
         <v>6.2</v>
       </c>
       <c r="BN139" s="1">
-        <f>IF(BM139=0, "", BM139-6.5)</f>
+        <f t="shared" si="14"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -28410,11 +28410,11 @@
         <v>0</v>
       </c>
       <c r="BC140" s="1">
-        <f>AV140/BJ140*30</f>
+        <f t="shared" si="12"/>
         <v>2.2727272727272729</v>
       </c>
       <c r="BD140" s="1">
-        <f>AW140/BJ140*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG140">
@@ -28439,7 +28439,7 @@
         <v>7.1</v>
       </c>
       <c r="BN140" s="1">
-        <f>IF(BM140=0, "", BM140-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -28607,11 +28607,11 @@
         <v>0</v>
       </c>
       <c r="BC141" s="1">
-        <f>AV141/BJ141*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD141" s="1">
-        <f>AW141/BJ141*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG141">
@@ -28630,7 +28630,7 @@
         <v>7.7</v>
       </c>
       <c r="BN141" s="1">
-        <f>IF(BM141=0, "", BM141-6.5)</f>
+        <f t="shared" si="14"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -28798,11 +28798,11 @@
         <v>0</v>
       </c>
       <c r="BC142" s="1">
-        <f>AV142/BJ142*30</f>
+        <f t="shared" si="12"/>
         <v>3.0303030303030303</v>
       </c>
       <c r="BD142" s="1">
-        <f>AW142/BJ142*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG142">
@@ -28827,7 +28827,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="BN142" s="1">
-        <f>IF(BM142=0, "", BM142-6.5)</f>
+        <f t="shared" si="14"/>
         <v>1.8000000000000007</v>
       </c>
     </row>
@@ -28995,11 +28995,11 @@
         <v>0</v>
       </c>
       <c r="BC143" s="1">
-        <f>AV143/BJ143*30</f>
+        <f t="shared" si="12"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="BD143" s="1">
-        <f>AW143/BJ143*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG143">
@@ -29024,7 +29024,7 @@
         <v>6</v>
       </c>
       <c r="BN143" s="1">
-        <f>IF(BM143=0, "", BM143-6.5)</f>
+        <f t="shared" si="14"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -29192,11 +29192,11 @@
         <v>0</v>
       </c>
       <c r="BC144" s="1">
-        <f>AV144/BJ144*30</f>
+        <f t="shared" si="12"/>
         <v>2.2727272727272729</v>
       </c>
       <c r="BD144" s="1">
-        <f>AW144/BJ144*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG144">
@@ -29221,7 +29221,7 @@
         <v>7.1</v>
       </c>
       <c r="BN144" s="1">
-        <f>IF(BM144=0, "", BM144-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -29389,11 +29389,11 @@
         <v>0</v>
       </c>
       <c r="BC145" s="1">
-        <f>AV145/BJ145*30</f>
+        <f t="shared" si="12"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="BD145" s="1">
-        <f>AW145/BJ145*30</f>
+        <f t="shared" si="13"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="BG145">
@@ -29418,7 +29418,7 @@
         <v>7.4</v>
       </c>
       <c r="BN145" s="1">
-        <f>IF(BM145=0, "", BM145-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -29586,11 +29586,11 @@
         <v>0</v>
       </c>
       <c r="BC146" s="1">
-        <f>AV146/BJ146*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD146" s="1">
-        <f>AW146/BJ146*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG146">
@@ -29615,7 +29615,7 @@
         <v>6.8</v>
       </c>
       <c r="BN146" s="1">
-        <f>IF(BM146=0, "", BM146-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -29783,11 +29783,11 @@
         <v>0</v>
       </c>
       <c r="BC147" s="1">
-        <f>AV147/BJ147*30</f>
+        <f t="shared" si="12"/>
         <v>3.2608695652173911</v>
       </c>
       <c r="BD147" s="1">
-        <f>AW147/BJ147*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG147">
@@ -29812,7 +29812,7 @@
         <v>7.3</v>
       </c>
       <c r="BN147" s="1">
-        <f>IF(BM147=0, "", BM147-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -29980,11 +29980,11 @@
         <v>0</v>
       </c>
       <c r="BC148" s="1">
-        <f>AV148/BJ148*30</f>
+        <f t="shared" si="12"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="BD148" s="1">
-        <f>AW148/BJ148*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG148">
@@ -30009,7 +30009,7 @@
         <v>6.8</v>
       </c>
       <c r="BN148" s="1">
-        <f>IF(BM148=0, "", BM148-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -30177,11 +30177,11 @@
         <v>0</v>
       </c>
       <c r="BC149" s="1">
-        <f>AV149/BJ149*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD149" s="1">
-        <f>AW149/BJ149*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG149">
@@ -30206,7 +30206,7 @@
         <v>6.6</v>
       </c>
       <c r="BN149" s="1">
-        <f>IF(BM149=0, "", BM149-6.5)</f>
+        <f t="shared" si="14"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -30374,11 +30374,11 @@
         <v>0</v>
       </c>
       <c r="BC150" s="1">
-        <f>AV150/BJ150*30</f>
+        <f t="shared" si="12"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="BD150" s="1">
-        <f>AW150/BJ150*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG150">
@@ -30403,7 +30403,7 @@
         <v>6.6</v>
       </c>
       <c r="BN150" s="1">
-        <f>IF(BM150=0, "", BM150-6.5)</f>
+        <f t="shared" si="14"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -30571,11 +30571,11 @@
         <v>0</v>
       </c>
       <c r="BC151" s="1">
-        <f>AV151/BJ151*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD151" s="1">
-        <f>AW151/BJ151*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG151">
@@ -30600,7 +30600,7 @@
         <v>6.5</v>
       </c>
       <c r="BN151" s="1">
-        <f>IF(BM151=0, "", BM151-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -30768,11 +30768,11 @@
         <v>0</v>
       </c>
       <c r="BC152" s="1">
-        <f>AV152/BJ152*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD152" s="1">
-        <f>AW152/BJ152*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG152">
@@ -30797,7 +30797,7 @@
         <v>7.4</v>
       </c>
       <c r="BN152" s="1">
-        <f>IF(BM152=0, "", BM152-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -30965,11 +30965,11 @@
         <v>0</v>
       </c>
       <c r="BC153" s="1">
-        <f>AV153/BJ153*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD153" s="1">
-        <f>AW153/BJ153*30</f>
+        <f t="shared" si="13"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BG153">
@@ -30994,7 +30994,7 @@
         <v>7.5</v>
       </c>
       <c r="BN153" s="1">
-        <f>IF(BM153=0, "", BM153-6.5)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
@@ -31162,11 +31162,11 @@
         <v>0</v>
       </c>
       <c r="BC154" s="1">
-        <f>AV154/BJ154*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD154" s="1">
-        <f>AW154/BJ154*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG154">
@@ -31191,7 +31191,7 @@
         <v>6.5</v>
       </c>
       <c r="BN154" s="1">
-        <f>IF(BM154=0, "", BM154-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -31359,11 +31359,11 @@
         <v>0</v>
       </c>
       <c r="BC155" s="1">
-        <f>AV155/BJ155*30</f>
+        <f t="shared" si="12"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD155" s="1">
-        <f>AW155/BJ155*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG155">
@@ -31382,7 +31382,7 @@
         <v>6.7</v>
       </c>
       <c r="BN155" s="1">
-        <f>IF(BM155=0, "", BM155-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -31550,11 +31550,11 @@
         <v>0</v>
       </c>
       <c r="BC156" s="1">
-        <f>AV156/BJ156*30</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BD156" s="1">
-        <f>AW156/BJ156*30</f>
+        <f t="shared" si="13"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BG156">
@@ -31573,7 +31573,7 @@
         <v>8</v>
       </c>
       <c r="BN156" s="1">
-        <f>IF(BM156=0, "", BM156-6.5)</f>
+        <f t="shared" si="14"/>
         <v>1.5</v>
       </c>
     </row>
@@ -31741,11 +31741,11 @@
         <v>0</v>
       </c>
       <c r="BC157" s="1">
-        <f>AV157/BJ157*30</f>
+        <f t="shared" si="12"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD157" s="1">
-        <f>AW157/BJ157*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG157">
@@ -31770,7 +31770,7 @@
         <v>6.2</v>
       </c>
       <c r="BN157" s="1">
-        <f>IF(BM157=0, "", BM157-6.5)</f>
+        <f t="shared" si="14"/>
         <v>-0.29999999999999982</v>
       </c>
     </row>
@@ -31938,11 +31938,11 @@
         <v>0</v>
       </c>
       <c r="BC158" s="1">
-        <f>AV158/BJ158*30</f>
+        <f t="shared" si="12"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="BD158" s="1">
-        <f>AW158/BJ158*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG158">
@@ -31967,7 +31967,7 @@
         <v>6.9</v>
       </c>
       <c r="BN158" s="1">
-        <f>IF(BM158=0, "", BM158-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -32135,11 +32135,11 @@
         <v>0</v>
       </c>
       <c r="BC159" s="1">
-        <f>AV159/BJ159*30</f>
+        <f t="shared" si="12"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD159" s="1">
-        <f>AW159/BJ159*30</f>
+        <f t="shared" si="13"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BG159">
@@ -32164,7 +32164,7 @@
         <v>6.9</v>
       </c>
       <c r="BN159" s="1">
-        <f>IF(BM159=0, "", BM159-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -32332,11 +32332,11 @@
         <v>0</v>
       </c>
       <c r="BC160" s="1">
-        <f>AV160/BJ160*30</f>
+        <f t="shared" si="12"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD160" s="1">
-        <f>AW160/BJ160*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE160">
@@ -32367,7 +32367,7 @@
         <v>6.6</v>
       </c>
       <c r="BN160" s="1">
-        <f>IF(BM160=0, "", BM160-6.5)</f>
+        <f t="shared" si="14"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -32535,11 +32535,11 @@
         <v>0</v>
       </c>
       <c r="BC161" s="1">
-        <f>AV161/BJ161*30</f>
+        <f t="shared" si="12"/>
         <v>3.2608695652173916</v>
       </c>
       <c r="BD161" s="1">
-        <f>AW161/BJ161*30</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BE161">
@@ -32570,7 +32570,7 @@
         <v>7.2</v>
       </c>
       <c r="BN161" s="1">
-        <f>IF(BM161=0, "", BM161-6.5)</f>
+        <f t="shared" si="14"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -32738,11 +32738,11 @@
         <v>0</v>
       </c>
       <c r="BC162" s="1">
-        <f>AV162/BJ162*30</f>
+        <f t="shared" ref="BC162:BC193" si="15">AV162/BJ162*30</f>
         <v>2.1739130434782608</v>
       </c>
       <c r="BD162" s="1">
-        <f>AW162/BJ162*30</f>
+        <f t="shared" ref="BD162:BD193" si="16">AW162/BJ162*30</f>
         <v>0</v>
       </c>
       <c r="BE162">
@@ -32773,7 +32773,7 @@
         <v>6.9</v>
       </c>
       <c r="BN162" s="1">
-        <f>IF(BM162=0, "", BM162-6.5)</f>
+        <f t="shared" ref="BN162:BN193" si="17">IF(BM162=0, "", BM162-6.5)</f>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -32941,11 +32941,11 @@
         <v>0</v>
       </c>
       <c r="BC163" s="1">
-        <f>AV163/BJ163*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD163" s="1">
-        <f>AW163/BJ163*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE163">
@@ -32976,7 +32976,7 @@
         <v>6.3</v>
       </c>
       <c r="BN163" s="1">
-        <f>IF(BM163=0, "", BM163-6.5)</f>
+        <f t="shared" si="17"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -33144,11 +33144,11 @@
         <v>0</v>
       </c>
       <c r="BC164" s="1">
-        <f>AV164/BJ164*30</f>
+        <f t="shared" si="15"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD164" s="1">
-        <f>AW164/BJ164*30</f>
+        <f t="shared" si="16"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="BE164">
@@ -33179,7 +33179,7 @@
         <v>7.5</v>
       </c>
       <c r="BN164" s="1">
-        <f>IF(BM164=0, "", BM164-6.5)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -33347,11 +33347,11 @@
         <v>0</v>
       </c>
       <c r="BC165" s="1">
-        <f>AV165/BJ165*30</f>
+        <f t="shared" si="15"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD165" s="1">
-        <f>AW165/BJ165*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE165">
@@ -33382,7 +33382,7 @@
         <v>7.1</v>
       </c>
       <c r="BN165" s="1">
-        <f>IF(BM165=0, "", BM165-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -33550,11 +33550,11 @@
         <v>0</v>
       </c>
       <c r="BC166" s="1">
-        <f>AV166/BJ166*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD166" s="1">
-        <f>AW166/BJ166*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE166">
@@ -33585,7 +33585,7 @@
         <v>6.8</v>
       </c>
       <c r="BN166" s="1">
-        <f>IF(BM166=0, "", BM166-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -33753,11 +33753,11 @@
         <v>0</v>
       </c>
       <c r="BC167" s="1">
-        <f>AV167/BJ167*30</f>
+        <f t="shared" si="15"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD167" s="1">
-        <f>AW167/BJ167*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE167">
@@ -33788,7 +33788,7 @@
         <v>6.8</v>
       </c>
       <c r="BN167" s="1">
-        <f>IF(BM167=0, "", BM167-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -33956,11 +33956,11 @@
         <v>0</v>
       </c>
       <c r="BC168" s="1">
-        <f>AV168/BJ168*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD168" s="1">
-        <f>AW168/BJ168*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE168">
@@ -33985,7 +33985,7 @@
         <v>7.3</v>
       </c>
       <c r="BN168" s="1">
-        <f>IF(BM168=0, "", BM168-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.79999999999999982</v>
       </c>
     </row>
@@ -34153,11 +34153,11 @@
         <v>0</v>
       </c>
       <c r="BC169" s="1">
-        <f>AV169/BJ169*30</f>
+        <f t="shared" si="15"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD169" s="1">
-        <f>AW169/BJ169*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE169">
@@ -34188,7 +34188,7 @@
         <v>8</v>
       </c>
       <c r="BN169" s="1">
-        <f>IF(BM169=0, "", BM169-6.5)</f>
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
     </row>
@@ -34356,11 +34356,11 @@
         <v>0</v>
       </c>
       <c r="BC170" s="1">
-        <f>AV170/BJ170*30</f>
+        <f t="shared" si="15"/>
         <v>1.0869565217391304</v>
       </c>
       <c r="BD170" s="1">
-        <f>AW170/BJ170*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE170">
@@ -34391,7 +34391,7 @@
         <v>6.9</v>
       </c>
       <c r="BN170" s="1">
-        <f>IF(BM170=0, "", BM170-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -34559,11 +34559,11 @@
         <v>0</v>
       </c>
       <c r="BC171" s="1">
-        <f>AV171/BJ171*30</f>
+        <f t="shared" si="15"/>
         <v>2.1739130434782608</v>
       </c>
       <c r="BD171" s="1">
-        <f>AW171/BJ171*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BE171">
@@ -34594,7 +34594,7 @@
         <v>7.6</v>
       </c>
       <c r="BN171" s="1">
-        <f>IF(BM171=0, "", BM171-6.5)</f>
+        <f t="shared" si="17"/>
         <v>1.0999999999999996</v>
       </c>
     </row>
@@ -34762,11 +34762,11 @@
         <v>0</v>
       </c>
       <c r="BC172" s="1">
-        <f>AV172/BJ172*30</f>
+        <f t="shared" si="15"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="BD172" s="1">
-        <f>AW172/BJ172*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG172">
@@ -34791,7 +34791,7 @@
         <v>7.1</v>
       </c>
       <c r="BN172" s="1">
-        <f>IF(BM172=0, "", BM172-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -34959,11 +34959,11 @@
         <v>0</v>
       </c>
       <c r="BC173" s="1">
-        <f>AV173/BJ173*30</f>
+        <f t="shared" si="15"/>
         <v>4.7619047619047619</v>
       </c>
       <c r="BD173" s="1">
-        <f>AW173/BJ173*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG173">
@@ -34988,7 +34988,7 @@
         <v>6.9</v>
       </c>
       <c r="BN173" s="1">
-        <f>IF(BM173=0, "", BM173-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -35156,11 +35156,11 @@
         <v>0</v>
       </c>
       <c r="BC174" s="1">
-        <f>AV174/BJ174*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD174" s="1">
-        <f>AW174/BJ174*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG174">
@@ -35185,7 +35185,7 @@
         <v>6</v>
       </c>
       <c r="BN174" s="1">
-        <f>IF(BM174=0, "", BM174-6.5)</f>
+        <f t="shared" si="17"/>
         <v>-0.5</v>
       </c>
     </row>
@@ -35353,11 +35353,11 @@
         <v>0</v>
       </c>
       <c r="BC175" s="1">
-        <f>AV175/BJ175*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD175" s="1">
-        <f>AW175/BJ175*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG175">
@@ -35382,7 +35382,7 @@
         <v>6.4</v>
       </c>
       <c r="BN175" s="1">
-        <f>IF(BM175=0, "", BM175-6.5)</f>
+        <f t="shared" si="17"/>
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
@@ -35550,11 +35550,11 @@
         <v>0</v>
       </c>
       <c r="BC176" s="1">
-        <f>AV176/BJ176*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD176" s="1">
-        <f>AW176/BJ176*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG176">
@@ -35571,7 +35571,7 @@
       </c>
       <c r="BM176" s="1"/>
       <c r="BN176" s="1" t="str">
-        <f>IF(BM176=0, "", BM176-6.5)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -35739,11 +35739,11 @@
         <v>0</v>
       </c>
       <c r="BC177" s="1">
-        <f>AV177/BJ177*30</f>
+        <f t="shared" si="15"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="BD177" s="1">
-        <f>AW177/BJ177*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG177">
@@ -35768,7 +35768,7 @@
         <v>6.7</v>
       </c>
       <c r="BN177" s="1">
-        <f>IF(BM177=0, "", BM177-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -35936,11 +35936,11 @@
         <v>0</v>
       </c>
       <c r="BC178" s="1">
-        <f>AV178/BJ178*30</f>
+        <f t="shared" si="15"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="BD178" s="1">
-        <f>AW178/BJ178*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG178">
@@ -35965,7 +35965,7 @@
         <v>6.7</v>
       </c>
       <c r="BN178" s="1">
-        <f>IF(BM178=0, "", BM178-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -36133,11 +36133,11 @@
         <v>0</v>
       </c>
       <c r="BC179" s="1">
-        <f>AV179/BJ179*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD179" s="1">
-        <f>AW179/BJ179*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG179">
@@ -36162,7 +36162,7 @@
         <v>6.7</v>
       </c>
       <c r="BN179" s="1">
-        <f>IF(BM179=0, "", BM179-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -36330,11 +36330,11 @@
         <v>0</v>
       </c>
       <c r="BC180" s="1">
-        <f>AV180/BJ180*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD180" s="1">
-        <f>AW180/BJ180*30</f>
+        <f t="shared" si="16"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="BG180">
@@ -36353,7 +36353,7 @@
         <v>6.7</v>
       </c>
       <c r="BN180" s="1">
-        <f>IF(BM180=0, "", BM180-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -36521,11 +36521,11 @@
         <v>0</v>
       </c>
       <c r="BC181" s="1">
-        <f>AV181/BJ181*30</f>
+        <f t="shared" si="15"/>
         <v>1.1904761904761905</v>
       </c>
       <c r="BD181" s="1">
-        <f>AW181/BJ181*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG181">
@@ -36550,7 +36550,7 @@
         <v>6.6</v>
       </c>
       <c r="BN181" s="1">
-        <f>IF(BM181=0, "", BM181-6.5)</f>
+        <f t="shared" si="17"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -36718,11 +36718,11 @@
         <v>0</v>
       </c>
       <c r="BC182" s="1">
-        <f>AV182/BJ182*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD182" s="1">
-        <f>AW182/BJ182*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG182">
@@ -36741,7 +36741,7 @@
         <v>8.4</v>
       </c>
       <c r="BN182" s="1">
-        <f>IF(BM182=0, "", BM182-6.5)</f>
+        <f t="shared" si="17"/>
         <v>1.9000000000000004</v>
       </c>
     </row>
@@ -36909,11 +36909,11 @@
         <v>0</v>
       </c>
       <c r="BC183" s="1">
-        <f>AV183/BJ183*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD183" s="1">
-        <f>AW183/BJ183*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG183">
@@ -36938,7 +36938,7 @@
         <v>7.5</v>
       </c>
       <c r="BN183" s="1">
-        <f>IF(BM183=0, "", BM183-6.5)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -37106,11 +37106,11 @@
         <v>0</v>
       </c>
       <c r="BC184" s="1">
-        <f>AV184/BJ184*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD184" s="1">
-        <f>AW184/BJ184*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG184">
@@ -37135,7 +37135,7 @@
         <v>6.6</v>
       </c>
       <c r="BN184" s="1">
-        <f>IF(BM184=0, "", BM184-6.5)</f>
+        <f t="shared" si="17"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -37303,11 +37303,11 @@
         <v>0</v>
       </c>
       <c r="BC185" s="1">
-        <f>AV185/BJ185*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD185" s="1">
-        <f>AW185/BJ185*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG185">
@@ -37332,7 +37332,7 @@
         <v>6.7</v>
       </c>
       <c r="BN185" s="1">
-        <f>IF(BM185=0, "", BM185-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.20000000000000018</v>
       </c>
     </row>
@@ -37500,11 +37500,11 @@
         <v>0</v>
       </c>
       <c r="BC186" s="1">
-        <f>AV186/BJ186*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD186" s="1">
-        <f>AW186/BJ186*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG186">
@@ -37529,7 +37529,7 @@
         <v>7.4</v>
       </c>
       <c r="BN186" s="1">
-        <f>IF(BM186=0, "", BM186-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.90000000000000036</v>
       </c>
     </row>
@@ -37697,11 +37697,11 @@
         <v>0</v>
       </c>
       <c r="BC187" s="1">
-        <f>AV187/BJ187*30</f>
+        <f t="shared" si="15"/>
         <v>0.96153846153846168</v>
       </c>
       <c r="BD187" s="1">
-        <f>AW187/BJ187*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG187">
@@ -37726,7 +37726,7 @@
         <v>7.1</v>
       </c>
       <c r="BN187" s="1">
-        <f>IF(BM187=0, "", BM187-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.59999999999999964</v>
       </c>
     </row>
@@ -37894,11 +37894,11 @@
         <v>0</v>
       </c>
       <c r="BC188" s="1">
-        <f>AV188/BJ188*30</f>
+        <f t="shared" si="15"/>
         <v>0.96153846153846168</v>
       </c>
       <c r="BD188" s="1">
-        <f>AW188/BJ188*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG188">
@@ -37923,7 +37923,7 @@
         <v>6.1</v>
       </c>
       <c r="BN188" s="1">
-        <f>IF(BM188=0, "", BM188-6.5)</f>
+        <f t="shared" si="17"/>
         <v>-0.40000000000000036</v>
       </c>
     </row>
@@ -38091,11 +38091,11 @@
         <v>0</v>
       </c>
       <c r="BC189" s="1">
-        <f>AV189/BJ189*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD189" s="1">
-        <f>AW189/BJ189*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG189">
@@ -38118,7 +38118,7 @@
       </c>
       <c r="BM189" s="1"/>
       <c r="BN189" s="1" t="str">
-        <f>IF(BM189=0, "", BM189-6.5)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -38286,11 +38286,11 @@
         <v>0</v>
       </c>
       <c r="BC190" s="1">
-        <f>AV190/BJ190*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD190" s="1">
-        <f>AW190/BJ190*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG190">
@@ -38315,7 +38315,7 @@
         <v>6.3</v>
       </c>
       <c r="BN190" s="1">
-        <f>IF(BM190=0, "", BM190-6.5)</f>
+        <f t="shared" si="17"/>
         <v>-0.20000000000000018</v>
       </c>
     </row>
@@ -38483,11 +38483,11 @@
         <v>0</v>
       </c>
       <c r="BC191" s="1">
-        <f>AV191/BJ191*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD191" s="1">
-        <f>AW191/BJ191*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG191">
@@ -38506,7 +38506,7 @@
         <v>6.9</v>
       </c>
       <c r="BN191" s="1">
-        <f>IF(BM191=0, "", BM191-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.40000000000000036</v>
       </c>
     </row>
@@ -38674,11 +38674,11 @@
         <v>0</v>
       </c>
       <c r="BC192" s="1">
-        <f>AV192/BJ192*30</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="BD192" s="1">
-        <f>AW192/BJ192*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG192">
@@ -38703,7 +38703,7 @@
         <v>7</v>
       </c>
       <c r="BN192" s="1">
-        <f>IF(BM192=0, "", BM192-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
     </row>
@@ -38871,11 +38871,11 @@
         <v>0</v>
       </c>
       <c r="BC193" s="1">
-        <f>AV193/BJ193*30</f>
+        <f t="shared" si="15"/>
         <v>0.96153846153846168</v>
       </c>
       <c r="BD193" s="1">
-        <f>AW193/BJ193*30</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="BG193">
@@ -38900,7 +38900,7 @@
         <v>6.8</v>
       </c>
       <c r="BN193" s="1">
-        <f>IF(BM193=0, "", BM193-6.5)</f>
+        <f t="shared" si="17"/>
         <v>0.29999999999999982</v>
       </c>
     </row>
@@ -39068,11 +39068,11 @@
         <v>0</v>
       </c>
       <c r="BC194" s="1">
-        <f>AV194/BJ194*30</f>
+        <f t="shared" ref="BC194:BC201" si="18">AV194/BJ194*30</f>
         <v>0</v>
       </c>
       <c r="BD194" s="1">
-        <f>AW194/BJ194*30</f>
+        <f t="shared" ref="BD194:BD201" si="19">AW194/BJ194*30</f>
         <v>0</v>
       </c>
       <c r="BG194">
@@ -39097,7 +39097,7 @@
         <v>8.1</v>
       </c>
       <c r="BN194" s="1">
-        <f>IF(BM194=0, "", BM194-6.5)</f>
+        <f t="shared" ref="BN194:BN225" si="20">IF(BM194=0, "", BM194-6.5)</f>
         <v>1.5999999999999996</v>
       </c>
     </row>
@@ -39265,11 +39265,11 @@
         <v>0</v>
       </c>
       <c r="BC195" s="1">
-        <f>AV195/BJ195*30</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD195" s="1">
-        <f>AW195/BJ195*30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG195">
@@ -39286,7 +39286,7 @@
       </c>
       <c r="BM195" s="1"/>
       <c r="BN195" s="1" t="str">
-        <f>IF(BM195=0, "", BM195-6.5)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -39454,11 +39454,11 @@
         <v>0</v>
       </c>
       <c r="BC196" s="1">
-        <f>AV196/BJ196*30</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD196" s="1">
-        <f>AW196/BJ196*30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG196">
@@ -39475,7 +39475,7 @@
       </c>
       <c r="BM196" s="1"/>
       <c r="BN196" s="1" t="str">
-        <f>IF(BM196=0, "", BM196-6.5)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -39643,11 +39643,11 @@
         <v>0</v>
       </c>
       <c r="BC197" s="1">
-        <f>AV197/BJ197*30</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD197" s="1">
-        <f>AW197/BJ197*30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG197">
@@ -39672,7 +39672,7 @@
         <v>6.6</v>
       </c>
       <c r="BN197" s="1">
-        <f>IF(BM197=0, "", BM197-6.5)</f>
+        <f t="shared" si="20"/>
         <v>9.9999999999999645E-2</v>
       </c>
     </row>
@@ -39840,11 +39840,11 @@
         <v>0</v>
       </c>
       <c r="BC198" s="1">
-        <f>AV198/BJ198*30</f>
+        <f t="shared" si="18"/>
         <v>0.96153846153846168</v>
       </c>
       <c r="BD198" s="1">
-        <f>AW198/BJ198*30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG198">
@@ -39863,7 +39863,7 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="BN198" s="1">
-        <f>IF(BM198=0, "", BM198-6.5)</f>
+        <f t="shared" si="20"/>
         <v>1.8000000000000007</v>
       </c>
     </row>
@@ -40031,11 +40031,11 @@
         <v>0</v>
       </c>
       <c r="BC199" s="1">
-        <f>AV199/BJ199*30</f>
+        <f t="shared" si="18"/>
         <v>2.8846153846153846</v>
       </c>
       <c r="BD199" s="1">
-        <f>AW199/BJ199*30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG199">
@@ -40060,7 +40060,7 @@
         <v>9.1</v>
       </c>
       <c r="BN199" s="1">
-        <f>IF(BM199=0, "", BM199-6.5)</f>
+        <f t="shared" si="20"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
@@ -40228,11 +40228,11 @@
         <v>0</v>
       </c>
       <c r="BC200" s="1">
-        <f>AV200/BJ200*30</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BD200" s="1">
-        <f>AW200/BJ200*30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG200">
@@ -40257,7 +40257,7 @@
         <v>9.1</v>
       </c>
       <c r="BN200" s="1">
-        <f>IF(BM200=0, "", BM200-6.5)</f>
+        <f t="shared" si="20"/>
         <v>2.5999999999999996</v>
       </c>
     </row>
@@ -40425,11 +40425,11 @@
         <v>0</v>
       </c>
       <c r="BC201" s="1">
-        <f>AV201/BJ201*30</f>
+        <f t="shared" si="18"/>
         <v>2.8846153846153846</v>
       </c>
       <c r="BD201" s="1">
-        <f>AW201/BJ201*30</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="BG201">
@@ -40454,7 +40454,7 @@
         <v>7.2</v>
       </c>
       <c r="BN201" s="1">
-        <f>IF(BM201=0, "", BM201-6.5)</f>
+        <f t="shared" si="20"/>
         <v>0.70000000000000018</v>
       </c>
     </row>
@@ -40476,6 +40476,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100619DA3307FCCEE489DAE87EF30524D7A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="68efe2dfb79f0a86588f41315f1271d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e7c35617-924a-4a13-8582-9856c8b54434" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="82ca29647680df2c0730a4bd57417340" ns3:_="">
     <xsd:import namespace="e7c35617-924a-4a13-8582-9856c8b54434"/>
@@ -40631,14 +40639,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="e7c35617-924a-4a13-8582-9856c8b54434" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{604F775B-7ABB-4039-9CBF-C25213A2F3BB}">
   <ds:schemaRefs>
@@ -40648,6 +40648,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD3ABE0-3D1E-4855-833D-0F941816683D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e7c35617-924a-4a13-8582-9856c8b54434"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B2002A8-C0FE-4029-BB06-CEFFD84280EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -40663,20 +40679,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6BD3ABE0-3D1E-4855-833D-0F941816683D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="e7c35617-924a-4a13-8582-9856c8b54434"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>